--- a/Output/Data/CE_EstaciónSanFernando.xlsx
+++ b/Output/Data/CE_EstaciónSanFernando.xlsx
@@ -14,6 +14,13 @@
     <sheet name="OzoneHr" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Rad" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Temp" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="viento1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="HR1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="MP10Hr1" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="MP25Hr1" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="OzoneHr1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Rad1" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Temp1" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1447,6 +1454,5116 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MES</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>28.9559211730957</v>
+      </c>
+      <c r="C2" t="n">
+        <v>26.79649925231934</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.50535774230957</v>
+      </c>
+      <c r="E2" t="n">
+        <v>27.1993408203125</v>
+      </c>
+      <c r="F2" t="n">
+        <v>26.6426830291748</v>
+      </c>
+      <c r="G2" t="n">
+        <v>26.76537132263184</v>
+      </c>
+      <c r="H2" t="n">
+        <v>29.57171630859375</v>
+      </c>
+      <c r="I2" t="n">
+        <v>29.64694023132324</v>
+      </c>
+      <c r="J2" t="n">
+        <v>32.96574401855469</v>
+      </c>
+      <c r="K2" t="n">
+        <v>33.60651397705078</v>
+      </c>
+      <c r="L2" t="n">
+        <v>36.35258483886719</v>
+      </c>
+      <c r="M2" t="n">
+        <v>39.21103286743164</v>
+      </c>
+      <c r="N2" t="n">
+        <v>39.9594841003418</v>
+      </c>
+      <c r="O2" t="n">
+        <v>42.75646591186523</v>
+      </c>
+      <c r="P2" t="n">
+        <v>43.57338714599609</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>42.37226867675781</v>
+      </c>
+      <c r="R2" t="n">
+        <v>44.45585250854492</v>
+      </c>
+      <c r="S2" t="n">
+        <v>47.62318420410156</v>
+      </c>
+      <c r="T2" t="n">
+        <v>48.51571655273438</v>
+      </c>
+      <c r="U2" t="n">
+        <v>51.19160842895508</v>
+      </c>
+      <c r="V2" t="n">
+        <v>51.23569488525391</v>
+      </c>
+      <c r="W2" t="n">
+        <v>40.45045852661133</v>
+      </c>
+      <c r="X2" t="n">
+        <v>35.07849884033203</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>31.9859790802002</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>28.85172653198242</v>
+      </c>
+      <c r="C3" t="n">
+        <v>26.25041198730469</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.22666931152344</v>
+      </c>
+      <c r="E3" t="n">
+        <v>27.06653785705566</v>
+      </c>
+      <c r="F3" t="n">
+        <v>27.10410690307617</v>
+      </c>
+      <c r="G3" t="n">
+        <v>28.70922660827637</v>
+      </c>
+      <c r="H3" t="n">
+        <v>32.09753036499023</v>
+      </c>
+      <c r="I3" t="n">
+        <v>36.18434906005859</v>
+      </c>
+      <c r="J3" t="n">
+        <v>38.33166122436523</v>
+      </c>
+      <c r="K3" t="n">
+        <v>41.00001525878906</v>
+      </c>
+      <c r="L3" t="n">
+        <v>42.40362930297852</v>
+      </c>
+      <c r="M3" t="n">
+        <v>43.13471603393555</v>
+      </c>
+      <c r="N3" t="n">
+        <v>44.04975509643555</v>
+      </c>
+      <c r="O3" t="n">
+        <v>44.63032531738281</v>
+      </c>
+      <c r="P3" t="n">
+        <v>46.58638763427734</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>46.09511947631836</v>
+      </c>
+      <c r="R3" t="n">
+        <v>44.73179626464844</v>
+      </c>
+      <c r="S3" t="n">
+        <v>46.86722946166992</v>
+      </c>
+      <c r="T3" t="n">
+        <v>49.87216567993164</v>
+      </c>
+      <c r="U3" t="n">
+        <v>52.46979904174805</v>
+      </c>
+      <c r="V3" t="n">
+        <v>48.13402938842773</v>
+      </c>
+      <c r="W3" t="n">
+        <v>36.94225692749023</v>
+      </c>
+      <c r="X3" t="n">
+        <v>31.80911827087402</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>28.89325141906738</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>33.56187057495117</v>
+      </c>
+      <c r="C4" t="n">
+        <v>30.74194526672363</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29.26238441467285</v>
+      </c>
+      <c r="E4" t="n">
+        <v>28.76589775085449</v>
+      </c>
+      <c r="F4" t="n">
+        <v>28.92305755615234</v>
+      </c>
+      <c r="G4" t="n">
+        <v>30.28078842163086</v>
+      </c>
+      <c r="H4" t="n">
+        <v>36.07568740844727</v>
+      </c>
+      <c r="I4" t="n">
+        <v>50.60684204101562</v>
+      </c>
+      <c r="J4" t="n">
+        <v>46.43525314331055</v>
+      </c>
+      <c r="K4" t="n">
+        <v>45.36063766479492</v>
+      </c>
+      <c r="L4" t="n">
+        <v>46.528564453125</v>
+      </c>
+      <c r="M4" t="n">
+        <v>46.91378784179688</v>
+      </c>
+      <c r="N4" t="n">
+        <v>49.978759765625</v>
+      </c>
+      <c r="O4" t="n">
+        <v>50.45042037963867</v>
+      </c>
+      <c r="P4" t="n">
+        <v>52.00181198120117</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>54.60955810546875</v>
+      </c>
+      <c r="R4" t="n">
+        <v>51.06785202026367</v>
+      </c>
+      <c r="S4" t="n">
+        <v>52.79696273803711</v>
+      </c>
+      <c r="T4" t="n">
+        <v>55.83108901977539</v>
+      </c>
+      <c r="U4" t="n">
+        <v>58.67223358154297</v>
+      </c>
+      <c r="V4" t="n">
+        <v>52.13085556030273</v>
+      </c>
+      <c r="W4" t="n">
+        <v>41.936767578125</v>
+      </c>
+      <c r="X4" t="n">
+        <v>36.77569580078125</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>33.9011344909668</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>46.65750885009766</v>
+      </c>
+      <c r="C5" t="n">
+        <v>43.48935699462891</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.68739318847656</v>
+      </c>
+      <c r="E5" t="n">
+        <v>36.51545715332031</v>
+      </c>
+      <c r="F5" t="n">
+        <v>34.41335296630859</v>
+      </c>
+      <c r="G5" t="n">
+        <v>33.04349136352539</v>
+      </c>
+      <c r="H5" t="n">
+        <v>36.78561782836914</v>
+      </c>
+      <c r="I5" t="n">
+        <v>49.58034515380859</v>
+      </c>
+      <c r="J5" t="n">
+        <v>52.89838409423828</v>
+      </c>
+      <c r="K5" t="n">
+        <v>48.41358947753906</v>
+      </c>
+      <c r="L5" t="n">
+        <v>46.47304534912109</v>
+      </c>
+      <c r="M5" t="n">
+        <v>49.21448135375977</v>
+      </c>
+      <c r="N5" t="n">
+        <v>50.60467910766602</v>
+      </c>
+      <c r="O5" t="n">
+        <v>50.75797271728516</v>
+      </c>
+      <c r="P5" t="n">
+        <v>49.92621612548828</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>50.02519989013672</v>
+      </c>
+      <c r="R5" t="n">
+        <v>51.56819152832031</v>
+      </c>
+      <c r="S5" t="n">
+        <v>51.98098373413086</v>
+      </c>
+      <c r="T5" t="n">
+        <v>61.83132171630859</v>
+      </c>
+      <c r="U5" t="n">
+        <v>69.58101654052734</v>
+      </c>
+      <c r="V5" t="n">
+        <v>70.49015808105469</v>
+      </c>
+      <c r="W5" t="n">
+        <v>64.66416931152344</v>
+      </c>
+      <c r="X5" t="n">
+        <v>58.38938140869141</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>51.40274429321289</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>71.7701416015625</v>
+      </c>
+      <c r="C6" t="n">
+        <v>65.63022613525391</v>
+      </c>
+      <c r="D6" t="n">
+        <v>53.36114120483398</v>
+      </c>
+      <c r="E6" t="n">
+        <v>45.56128692626953</v>
+      </c>
+      <c r="F6" t="n">
+        <v>39.84187698364258</v>
+      </c>
+      <c r="G6" t="n">
+        <v>36.70172882080078</v>
+      </c>
+      <c r="H6" t="n">
+        <v>36.65075302124023</v>
+      </c>
+      <c r="I6" t="n">
+        <v>43.65639114379883</v>
+      </c>
+      <c r="J6" t="n">
+        <v>56.40772247314453</v>
+      </c>
+      <c r="K6" t="n">
+        <v>54.5259895324707</v>
+      </c>
+      <c r="L6" t="n">
+        <v>44.48095321655273</v>
+      </c>
+      <c r="M6" t="n">
+        <v>43.21578216552734</v>
+      </c>
+      <c r="N6" t="n">
+        <v>43.57967376708984</v>
+      </c>
+      <c r="O6" t="n">
+        <v>46.46651458740234</v>
+      </c>
+      <c r="P6" t="n">
+        <v>45.37493515014648</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>44.71952438354492</v>
+      </c>
+      <c r="R6" t="n">
+        <v>49.13174057006836</v>
+      </c>
+      <c r="S6" t="n">
+        <v>55.96281814575195</v>
+      </c>
+      <c r="T6" t="n">
+        <v>75.21137237548828</v>
+      </c>
+      <c r="U6" t="n">
+        <v>88.99365997314453</v>
+      </c>
+      <c r="V6" t="n">
+        <v>92.28582763671875</v>
+      </c>
+      <c r="W6" t="n">
+        <v>86.34748840332031</v>
+      </c>
+      <c r="X6" t="n">
+        <v>78.96864318847656</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>73.62313079833984</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>81.40165710449219</v>
+      </c>
+      <c r="C7" t="n">
+        <v>68.81842041015625</v>
+      </c>
+      <c r="D7" t="n">
+        <v>57.84558486938477</v>
+      </c>
+      <c r="E7" t="n">
+        <v>48.44704818725586</v>
+      </c>
+      <c r="F7" t="n">
+        <v>41.66216278076172</v>
+      </c>
+      <c r="G7" t="n">
+        <v>36.50165939331055</v>
+      </c>
+      <c r="H7" t="n">
+        <v>32.95251846313477</v>
+      </c>
+      <c r="I7" t="n">
+        <v>36.26345825195312</v>
+      </c>
+      <c r="J7" t="n">
+        <v>46.16547775268555</v>
+      </c>
+      <c r="K7" t="n">
+        <v>49.74983978271484</v>
+      </c>
+      <c r="L7" t="n">
+        <v>42.39563751220703</v>
+      </c>
+      <c r="M7" t="n">
+        <v>39.05308151245117</v>
+      </c>
+      <c r="N7" t="n">
+        <v>40.03914260864258</v>
+      </c>
+      <c r="O7" t="n">
+        <v>44.14450454711914</v>
+      </c>
+      <c r="P7" t="n">
+        <v>43.22076034545898</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>44.14941787719727</v>
+      </c>
+      <c r="R7" t="n">
+        <v>47.55011749267578</v>
+      </c>
+      <c r="S7" t="n">
+        <v>55.83132553100586</v>
+      </c>
+      <c r="T7" t="n">
+        <v>74.91447448730469</v>
+      </c>
+      <c r="U7" t="n">
+        <v>96.245361328125</v>
+      </c>
+      <c r="V7" t="n">
+        <v>100.3375396728516</v>
+      </c>
+      <c r="W7" t="n">
+        <v>88.04579925537109</v>
+      </c>
+      <c r="X7" t="n">
+        <v>83.80600738525391</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>83.34130096435547</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>81.37299346923828</v>
+      </c>
+      <c r="C8" t="n">
+        <v>76.69412231445312</v>
+      </c>
+      <c r="D8" t="n">
+        <v>64.20970916748047</v>
+      </c>
+      <c r="E8" t="n">
+        <v>50.75581359863281</v>
+      </c>
+      <c r="F8" t="n">
+        <v>42.25311279296875</v>
+      </c>
+      <c r="G8" t="n">
+        <v>36.59920120239258</v>
+      </c>
+      <c r="H8" t="n">
+        <v>33.79382705688477</v>
+      </c>
+      <c r="I8" t="n">
+        <v>37.90098190307617</v>
+      </c>
+      <c r="J8" t="n">
+        <v>47.19912338256836</v>
+      </c>
+      <c r="K8" t="n">
+        <v>48.68806838989258</v>
+      </c>
+      <c r="L8" t="n">
+        <v>41.19291687011719</v>
+      </c>
+      <c r="M8" t="n">
+        <v>37.14331817626953</v>
+      </c>
+      <c r="N8" t="n">
+        <v>42.31365966796875</v>
+      </c>
+      <c r="O8" t="n">
+        <v>44.63940811157227</v>
+      </c>
+      <c r="P8" t="n">
+        <v>42.65071487426758</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>43.57749938964844</v>
+      </c>
+      <c r="R8" t="n">
+        <v>45.52511978149414</v>
+      </c>
+      <c r="S8" t="n">
+        <v>53.67443466186523</v>
+      </c>
+      <c r="T8" t="n">
+        <v>72.47853088378906</v>
+      </c>
+      <c r="U8" t="n">
+        <v>98.24324798583984</v>
+      </c>
+      <c r="V8" t="n">
+        <v>110.6555633544922</v>
+      </c>
+      <c r="W8" t="n">
+        <v>112.2255020141602</v>
+      </c>
+      <c r="X8" t="n">
+        <v>98.67702484130859</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>85.57636260986328</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>58.83251571655273</v>
+      </c>
+      <c r="C9" t="n">
+        <v>51.75549697875977</v>
+      </c>
+      <c r="D9" t="n">
+        <v>43.60174179077148</v>
+      </c>
+      <c r="E9" t="n">
+        <v>35.48924255371094</v>
+      </c>
+      <c r="F9" t="n">
+        <v>31.00180244445801</v>
+      </c>
+      <c r="G9" t="n">
+        <v>28.77819061279297</v>
+      </c>
+      <c r="H9" t="n">
+        <v>30.7619571685791</v>
+      </c>
+      <c r="I9" t="n">
+        <v>38.54524230957031</v>
+      </c>
+      <c r="J9" t="n">
+        <v>47.61345672607422</v>
+      </c>
+      <c r="K9" t="n">
+        <v>43.39971160888672</v>
+      </c>
+      <c r="L9" t="n">
+        <v>37.26537704467773</v>
+      </c>
+      <c r="M9" t="n">
+        <v>35.4056396484375</v>
+      </c>
+      <c r="N9" t="n">
+        <v>37.56846618652344</v>
+      </c>
+      <c r="O9" t="n">
+        <v>39.16069793701172</v>
+      </c>
+      <c r="P9" t="n">
+        <v>39.98567581176758</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>41.16702651977539</v>
+      </c>
+      <c r="R9" t="n">
+        <v>44.00232696533203</v>
+      </c>
+      <c r="S9" t="n">
+        <v>45.1317138671875</v>
+      </c>
+      <c r="T9" t="n">
+        <v>58.90621185302734</v>
+      </c>
+      <c r="U9" t="n">
+        <v>75.72294616699219</v>
+      </c>
+      <c r="V9" t="n">
+        <v>85.998779296875</v>
+      </c>
+      <c r="W9" t="n">
+        <v>79.01495361328125</v>
+      </c>
+      <c r="X9" t="n">
+        <v>70.2203369140625</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>63.59526062011719</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>38.47517013549805</v>
+      </c>
+      <c r="C10" t="n">
+        <v>35.53540802001953</v>
+      </c>
+      <c r="D10" t="n">
+        <v>30.00351715087891</v>
+      </c>
+      <c r="E10" t="n">
+        <v>26.4162712097168</v>
+      </c>
+      <c r="F10" t="n">
+        <v>24.23745536804199</v>
+      </c>
+      <c r="G10" t="n">
+        <v>24.4830265045166</v>
+      </c>
+      <c r="H10" t="n">
+        <v>26.64432907104492</v>
+      </c>
+      <c r="I10" t="n">
+        <v>35.73405838012695</v>
+      </c>
+      <c r="J10" t="n">
+        <v>35.14112091064453</v>
+      </c>
+      <c r="K10" t="n">
+        <v>30.81442451477051</v>
+      </c>
+      <c r="L10" t="n">
+        <v>31.53681945800781</v>
+      </c>
+      <c r="M10" t="n">
+        <v>31.86932563781738</v>
+      </c>
+      <c r="N10" t="n">
+        <v>34.16474914550781</v>
+      </c>
+      <c r="O10" t="n">
+        <v>34.61752319335938</v>
+      </c>
+      <c r="P10" t="n">
+        <v>33.82302474975586</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>36.10931777954102</v>
+      </c>
+      <c r="R10" t="n">
+        <v>37.99195861816406</v>
+      </c>
+      <c r="S10" t="n">
+        <v>37.15295028686523</v>
+      </c>
+      <c r="T10" t="n">
+        <v>44.55776977539062</v>
+      </c>
+      <c r="U10" t="n">
+        <v>55.36767196655273</v>
+      </c>
+      <c r="V10" t="n">
+        <v>62.92589950561523</v>
+      </c>
+      <c r="W10" t="n">
+        <v>58.44017028808594</v>
+      </c>
+      <c r="X10" t="n">
+        <v>52.6362190246582</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>44.6331672668457</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>27.59665107727051</v>
+      </c>
+      <c r="C11" t="n">
+        <v>24.65630531311035</v>
+      </c>
+      <c r="D11" t="n">
+        <v>21.08378028869629</v>
+      </c>
+      <c r="E11" t="n">
+        <v>20.08976173400879</v>
+      </c>
+      <c r="F11" t="n">
+        <v>19.26357078552246</v>
+      </c>
+      <c r="G11" t="n">
+        <v>18.56046104431152</v>
+      </c>
+      <c r="H11" t="n">
+        <v>23.31329917907715</v>
+      </c>
+      <c r="I11" t="n">
+        <v>29.02127075195312</v>
+      </c>
+      <c r="J11" t="n">
+        <v>27.79435539245605</v>
+      </c>
+      <c r="K11" t="n">
+        <v>28.20320701599121</v>
+      </c>
+      <c r="L11" t="n">
+        <v>29.74577713012695</v>
+      </c>
+      <c r="M11" t="n">
+        <v>31.36730194091797</v>
+      </c>
+      <c r="N11" t="n">
+        <v>32.31727600097656</v>
+      </c>
+      <c r="O11" t="n">
+        <v>31.69564247131348</v>
+      </c>
+      <c r="P11" t="n">
+        <v>31.15566825866699</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>31.43320083618164</v>
+      </c>
+      <c r="R11" t="n">
+        <v>30.74487686157227</v>
+      </c>
+      <c r="S11" t="n">
+        <v>33.78120040893555</v>
+      </c>
+      <c r="T11" t="n">
+        <v>35.68547058105469</v>
+      </c>
+      <c r="U11" t="n">
+        <v>41.01839447021484</v>
+      </c>
+      <c r="V11" t="n">
+        <v>43.74557113647461</v>
+      </c>
+      <c r="W11" t="n">
+        <v>37.723388671875</v>
+      </c>
+      <c r="X11" t="n">
+        <v>32.53618621826172</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>29.55523681640625</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>25.19579124450684</v>
+      </c>
+      <c r="C12" t="n">
+        <v>23.60294532775879</v>
+      </c>
+      <c r="D12" t="n">
+        <v>21.61155700683594</v>
+      </c>
+      <c r="E12" t="n">
+        <v>20.22705841064453</v>
+      </c>
+      <c r="F12" t="n">
+        <v>19.39006805419922</v>
+      </c>
+      <c r="G12" t="n">
+        <v>20.61433410644531</v>
+      </c>
+      <c r="H12" t="n">
+        <v>24.34922027587891</v>
+      </c>
+      <c r="I12" t="n">
+        <v>29.27799034118652</v>
+      </c>
+      <c r="J12" t="n">
+        <v>27.32097816467285</v>
+      </c>
+      <c r="K12" t="n">
+        <v>29.01275825500488</v>
+      </c>
+      <c r="L12" t="n">
+        <v>32.02145767211914</v>
+      </c>
+      <c r="M12" t="n">
+        <v>31.81528472900391</v>
+      </c>
+      <c r="N12" t="n">
+        <v>30.8182315826416</v>
+      </c>
+      <c r="O12" t="n">
+        <v>31.99555206298828</v>
+      </c>
+      <c r="P12" t="n">
+        <v>32.99939727783203</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>31.89565277099609</v>
+      </c>
+      <c r="R12" t="n">
+        <v>35.63935470581055</v>
+      </c>
+      <c r="S12" t="n">
+        <v>39.25162124633789</v>
+      </c>
+      <c r="T12" t="n">
+        <v>37.93793487548828</v>
+      </c>
+      <c r="U12" t="n">
+        <v>40.23017120361328</v>
+      </c>
+      <c r="V12" t="n">
+        <v>38.86813354492188</v>
+      </c>
+      <c r="W12" t="n">
+        <v>33.23150634765625</v>
+      </c>
+      <c r="X12" t="n">
+        <v>28.86820030212402</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>27.13930892944336</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>25.08525276184082</v>
+      </c>
+      <c r="C13" t="n">
+        <v>23.68931007385254</v>
+      </c>
+      <c r="D13" t="n">
+        <v>21.64521026611328</v>
+      </c>
+      <c r="E13" t="n">
+        <v>21.24662017822266</v>
+      </c>
+      <c r="F13" t="n">
+        <v>20.8399829864502</v>
+      </c>
+      <c r="G13" t="n">
+        <v>22.61306762695312</v>
+      </c>
+      <c r="H13" t="n">
+        <v>25.34280776977539</v>
+      </c>
+      <c r="I13" t="n">
+        <v>28.27949905395508</v>
+      </c>
+      <c r="J13" t="n">
+        <v>29.65143394470215</v>
+      </c>
+      <c r="K13" t="n">
+        <v>30.92961311340332</v>
+      </c>
+      <c r="L13" t="n">
+        <v>33.55340957641602</v>
+      </c>
+      <c r="M13" t="n">
+        <v>33.50873947143555</v>
+      </c>
+      <c r="N13" t="n">
+        <v>34.04793167114258</v>
+      </c>
+      <c r="O13" t="n">
+        <v>34.94757080078125</v>
+      </c>
+      <c r="P13" t="n">
+        <v>35.06954193115234</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>35.42464065551758</v>
+      </c>
+      <c r="R13" t="n">
+        <v>36.52366256713867</v>
+      </c>
+      <c r="S13" t="n">
+        <v>41.59543991088867</v>
+      </c>
+      <c r="T13" t="n">
+        <v>40.25937271118164</v>
+      </c>
+      <c r="U13" t="n">
+        <v>41.70371627807617</v>
+      </c>
+      <c r="V13" t="n">
+        <v>41.30228805541992</v>
+      </c>
+      <c r="W13" t="n">
+        <v>32.25880432128906</v>
+      </c>
+      <c r="X13" t="n">
+        <v>27.91671752929688</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>25.08755302429199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MES</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>15.14606761932373</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14.81132411956787</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.50375843048096</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12.34409999847412</v>
+      </c>
+      <c r="F2" t="n">
+        <v>12.43544673919678</v>
+      </c>
+      <c r="G2" t="n">
+        <v>11.67170810699463</v>
+      </c>
+      <c r="H2" t="n">
+        <v>12.35052680969238</v>
+      </c>
+      <c r="I2" t="n">
+        <v>12.44154453277588</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11.84369659423828</v>
+      </c>
+      <c r="K2" t="n">
+        <v>12.45841312408447</v>
+      </c>
+      <c r="L2" t="n">
+        <v>13.7920036315918</v>
+      </c>
+      <c r="M2" t="n">
+        <v>13.72426605224609</v>
+      </c>
+      <c r="N2" t="n">
+        <v>13.28014183044434</v>
+      </c>
+      <c r="O2" t="n">
+        <v>13.33635807037354</v>
+      </c>
+      <c r="P2" t="n">
+        <v>12.68590450286865</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>13.25871849060059</v>
+      </c>
+      <c r="R2" t="n">
+        <v>13.5094633102417</v>
+      </c>
+      <c r="S2" t="n">
+        <v>14.15990734100342</v>
+      </c>
+      <c r="T2" t="n">
+        <v>15.22064876556396</v>
+      </c>
+      <c r="U2" t="n">
+        <v>15.31441116333008</v>
+      </c>
+      <c r="V2" t="n">
+        <v>16.13258934020996</v>
+      </c>
+      <c r="W2" t="n">
+        <v>17.50296783447266</v>
+      </c>
+      <c r="X2" t="n">
+        <v>18.894775390625</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>16.35221099853516</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>11.07387065887451</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10.83180236816406</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.72151565551758</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11.00882053375244</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10.81113815307617</v>
+      </c>
+      <c r="G3" t="n">
+        <v>10.76984977722168</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10.97140407562256</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11.40914726257324</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12.69443798065186</v>
+      </c>
+      <c r="K3" t="n">
+        <v>13.11636638641357</v>
+      </c>
+      <c r="L3" t="n">
+        <v>14.20015239715576</v>
+      </c>
+      <c r="M3" t="n">
+        <v>12.77131366729736</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10.58946323394775</v>
+      </c>
+      <c r="O3" t="n">
+        <v>10.15692234039307</v>
+      </c>
+      <c r="P3" t="n">
+        <v>10.50566101074219</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>10.42338371276855</v>
+      </c>
+      <c r="R3" t="n">
+        <v>9.658578872680664</v>
+      </c>
+      <c r="S3" t="n">
+        <v>9.83853816986084</v>
+      </c>
+      <c r="T3" t="n">
+        <v>10.72433853149414</v>
+      </c>
+      <c r="U3" t="n">
+        <v>11.10511112213135</v>
+      </c>
+      <c r="V3" t="n">
+        <v>13.19769382476807</v>
+      </c>
+      <c r="W3" t="n">
+        <v>12.67012023925781</v>
+      </c>
+      <c r="X3" t="n">
+        <v>13.33450603485107</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>10.66035270690918</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10.6208963394165</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.779627799987793</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.573863983154297</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10.6484842300415</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11.68398952484131</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11.47061729431152</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13.26755046844482</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16.2185173034668</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14.57791233062744</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14.50189781188965</v>
+      </c>
+      <c r="L4" t="n">
+        <v>15.09423351287842</v>
+      </c>
+      <c r="M4" t="n">
+        <v>15.32075214385986</v>
+      </c>
+      <c r="N4" t="n">
+        <v>14.65632057189941</v>
+      </c>
+      <c r="O4" t="n">
+        <v>14.09580612182617</v>
+      </c>
+      <c r="P4" t="n">
+        <v>13.31229591369629</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>13.42473793029785</v>
+      </c>
+      <c r="R4" t="n">
+        <v>11.52739524841309</v>
+      </c>
+      <c r="S4" t="n">
+        <v>11.24175357818604</v>
+      </c>
+      <c r="T4" t="n">
+        <v>12.03945827484131</v>
+      </c>
+      <c r="U4" t="n">
+        <v>13.47776699066162</v>
+      </c>
+      <c r="V4" t="n">
+        <v>13.81338310241699</v>
+      </c>
+      <c r="W4" t="n">
+        <v>13.1715784072876</v>
+      </c>
+      <c r="X4" t="n">
+        <v>11.5816822052002</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>10.97697639465332</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>21.63193702697754</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20.31251907348633</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.44938468933105</v>
+      </c>
+      <c r="E5" t="n">
+        <v>19.65798568725586</v>
+      </c>
+      <c r="F5" t="n">
+        <v>18.14145278930664</v>
+      </c>
+      <c r="G5" t="n">
+        <v>17.01841163635254</v>
+      </c>
+      <c r="H5" t="n">
+        <v>17.69505310058594</v>
+      </c>
+      <c r="I5" t="n">
+        <v>19.26602745056152</v>
+      </c>
+      <c r="J5" t="n">
+        <v>19.94526863098145</v>
+      </c>
+      <c r="K5" t="n">
+        <v>19.23542022705078</v>
+      </c>
+      <c r="L5" t="n">
+        <v>18.20629692077637</v>
+      </c>
+      <c r="M5" t="n">
+        <v>17.17784309387207</v>
+      </c>
+      <c r="N5" t="n">
+        <v>16.53546524047852</v>
+      </c>
+      <c r="O5" t="n">
+        <v>15.51600646972656</v>
+      </c>
+      <c r="P5" t="n">
+        <v>15.19206237792969</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>15.23035526275635</v>
+      </c>
+      <c r="R5" t="n">
+        <v>16.017578125</v>
+      </c>
+      <c r="S5" t="n">
+        <v>16.84989547729492</v>
+      </c>
+      <c r="T5" t="n">
+        <v>18.77381706237793</v>
+      </c>
+      <c r="U5" t="n">
+        <v>23.0141544342041</v>
+      </c>
+      <c r="V5" t="n">
+        <v>26.34438323974609</v>
+      </c>
+      <c r="W5" t="n">
+        <v>27.28902435302734</v>
+      </c>
+      <c r="X5" t="n">
+        <v>26.13177490234375</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>23.99076461791992</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>46.79473876953125</v>
+      </c>
+      <c r="C6" t="n">
+        <v>40.4125862121582</v>
+      </c>
+      <c r="D6" t="n">
+        <v>37.41860961914062</v>
+      </c>
+      <c r="E6" t="n">
+        <v>32.51877593994141</v>
+      </c>
+      <c r="F6" t="n">
+        <v>29.05797004699707</v>
+      </c>
+      <c r="G6" t="n">
+        <v>26.97895622253418</v>
+      </c>
+      <c r="H6" t="n">
+        <v>26.271728515625</v>
+      </c>
+      <c r="I6" t="n">
+        <v>28.3408031463623</v>
+      </c>
+      <c r="J6" t="n">
+        <v>30.32596015930176</v>
+      </c>
+      <c r="K6" t="n">
+        <v>29.02151489257812</v>
+      </c>
+      <c r="L6" t="n">
+        <v>27.71712112426758</v>
+      </c>
+      <c r="M6" t="n">
+        <v>26.63044166564941</v>
+      </c>
+      <c r="N6" t="n">
+        <v>25.6596508026123</v>
+      </c>
+      <c r="O6" t="n">
+        <v>23.66451263427734</v>
+      </c>
+      <c r="P6" t="n">
+        <v>21.75244140625</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>21.10904693603516</v>
+      </c>
+      <c r="R6" t="n">
+        <v>23.9456615447998</v>
+      </c>
+      <c r="S6" t="n">
+        <v>31.45313453674316</v>
+      </c>
+      <c r="T6" t="n">
+        <v>41.8270263671875</v>
+      </c>
+      <c r="U6" t="n">
+        <v>49.44782257080078</v>
+      </c>
+      <c r="V6" t="n">
+        <v>54.61191940307617</v>
+      </c>
+      <c r="W6" t="n">
+        <v>55.55889511108398</v>
+      </c>
+      <c r="X6" t="n">
+        <v>55.17587661743164</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>50.8328971862793</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>57.73615646362305</v>
+      </c>
+      <c r="C7" t="n">
+        <v>52.83864212036133</v>
+      </c>
+      <c r="D7" t="n">
+        <v>45.34732055664062</v>
+      </c>
+      <c r="E7" t="n">
+        <v>39.19702911376953</v>
+      </c>
+      <c r="F7" t="n">
+        <v>34.4083137512207</v>
+      </c>
+      <c r="G7" t="n">
+        <v>30.21969604492188</v>
+      </c>
+      <c r="H7" t="n">
+        <v>28.19035911560059</v>
+      </c>
+      <c r="I7" t="n">
+        <v>31.61963844299316</v>
+      </c>
+      <c r="J7" t="n">
+        <v>34.4962272644043</v>
+      </c>
+      <c r="K7" t="n">
+        <v>35.74065399169922</v>
+      </c>
+      <c r="L7" t="n">
+        <v>32.27234649658203</v>
+      </c>
+      <c r="M7" t="n">
+        <v>30.79945373535156</v>
+      </c>
+      <c r="N7" t="n">
+        <v>30.98149299621582</v>
+      </c>
+      <c r="O7" t="n">
+        <v>29.52985763549805</v>
+      </c>
+      <c r="P7" t="n">
+        <v>28.83096504211426</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>29.68571281433105</v>
+      </c>
+      <c r="R7" t="n">
+        <v>32.59823608398438</v>
+      </c>
+      <c r="S7" t="n">
+        <v>42.50987243652344</v>
+      </c>
+      <c r="T7" t="n">
+        <v>58.87358093261719</v>
+      </c>
+      <c r="U7" t="n">
+        <v>70.61728668212891</v>
+      </c>
+      <c r="V7" t="n">
+        <v>65.34959411621094</v>
+      </c>
+      <c r="W7" t="n">
+        <v>65.86781311035156</v>
+      </c>
+      <c r="X7" t="n">
+        <v>70.35405731201172</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>68.36865997314453</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>63.91342926025391</v>
+      </c>
+      <c r="C8" t="n">
+        <v>62.09059143066406</v>
+      </c>
+      <c r="D8" t="n">
+        <v>53.19157409667969</v>
+      </c>
+      <c r="E8" t="n">
+        <v>42.83406829833984</v>
+      </c>
+      <c r="F8" t="n">
+        <v>37.10040664672852</v>
+      </c>
+      <c r="G8" t="n">
+        <v>30.33920478820801</v>
+      </c>
+      <c r="H8" t="n">
+        <v>27.79716491699219</v>
+      </c>
+      <c r="I8" t="n">
+        <v>29.03730773925781</v>
+      </c>
+      <c r="J8" t="n">
+        <v>30.92224311828613</v>
+      </c>
+      <c r="K8" t="n">
+        <v>30.33810424804688</v>
+      </c>
+      <c r="L8" t="n">
+        <v>28.96476173400879</v>
+      </c>
+      <c r="M8" t="n">
+        <v>27.94314765930176</v>
+      </c>
+      <c r="N8" t="n">
+        <v>27.06460762023926</v>
+      </c>
+      <c r="O8" t="n">
+        <v>25.05837249755859</v>
+      </c>
+      <c r="P8" t="n">
+        <v>25.55864715576172</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>25.23451995849609</v>
+      </c>
+      <c r="R8" t="n">
+        <v>26.68395042419434</v>
+      </c>
+      <c r="S8" t="n">
+        <v>34.9993896484375</v>
+      </c>
+      <c r="T8" t="n">
+        <v>51.43485260009766</v>
+      </c>
+      <c r="U8" t="n">
+        <v>68.25481414794922</v>
+      </c>
+      <c r="V8" t="n">
+        <v>69.85320281982422</v>
+      </c>
+      <c r="W8" t="n">
+        <v>77.82070922851562</v>
+      </c>
+      <c r="X8" t="n">
+        <v>70.09175872802734</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>68.16104125976562</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>39.22817611694336</v>
+      </c>
+      <c r="C9" t="n">
+        <v>33.94309997558594</v>
+      </c>
+      <c r="D9" t="n">
+        <v>28.49675750732422</v>
+      </c>
+      <c r="E9" t="n">
+        <v>24.45427513122559</v>
+      </c>
+      <c r="F9" t="n">
+        <v>22.13481521606445</v>
+      </c>
+      <c r="G9" t="n">
+        <v>20.95219993591309</v>
+      </c>
+      <c r="H9" t="n">
+        <v>21.89546775817871</v>
+      </c>
+      <c r="I9" t="n">
+        <v>24.20410919189453</v>
+      </c>
+      <c r="J9" t="n">
+        <v>25.60354232788086</v>
+      </c>
+      <c r="K9" t="n">
+        <v>24.07252883911133</v>
+      </c>
+      <c r="L9" t="n">
+        <v>24.38612937927246</v>
+      </c>
+      <c r="M9" t="n">
+        <v>23.21305084228516</v>
+      </c>
+      <c r="N9" t="n">
+        <v>23.38905143737793</v>
+      </c>
+      <c r="O9" t="n">
+        <v>22.51801681518555</v>
+      </c>
+      <c r="P9" t="n">
+        <v>20.34891700744629</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>20.22696495056152</v>
+      </c>
+      <c r="R9" t="n">
+        <v>21.26372718811035</v>
+      </c>
+      <c r="S9" t="n">
+        <v>23.2983283996582</v>
+      </c>
+      <c r="T9" t="n">
+        <v>31.40950012207031</v>
+      </c>
+      <c r="U9" t="n">
+        <v>38.9672737121582</v>
+      </c>
+      <c r="V9" t="n">
+        <v>47.31233215332031</v>
+      </c>
+      <c r="W9" t="n">
+        <v>48.34971237182617</v>
+      </c>
+      <c r="X9" t="n">
+        <v>46.26541137695312</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>42.24794006347656</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>18.32411193847656</v>
+      </c>
+      <c r="C10" t="n">
+        <v>17.76493072509766</v>
+      </c>
+      <c r="D10" t="n">
+        <v>16.39740943908691</v>
+      </c>
+      <c r="E10" t="n">
+        <v>13.909592628479</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12.90346240997314</v>
+      </c>
+      <c r="G10" t="n">
+        <v>11.93680191040039</v>
+      </c>
+      <c r="H10" t="n">
+        <v>13.5319881439209</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15.1719388961792</v>
+      </c>
+      <c r="J10" t="n">
+        <v>15.81855010986328</v>
+      </c>
+      <c r="K10" t="n">
+        <v>17.25054359436035</v>
+      </c>
+      <c r="L10" t="n">
+        <v>19.46768951416016</v>
+      </c>
+      <c r="M10" t="n">
+        <v>20.53038787841797</v>
+      </c>
+      <c r="N10" t="n">
+        <v>18.97014999389648</v>
+      </c>
+      <c r="O10" t="n">
+        <v>16.53183364868164</v>
+      </c>
+      <c r="P10" t="n">
+        <v>15.75595569610596</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>14.68507194519043</v>
+      </c>
+      <c r="R10" t="n">
+        <v>14.88438892364502</v>
+      </c>
+      <c r="S10" t="n">
+        <v>16.0556583404541</v>
+      </c>
+      <c r="T10" t="n">
+        <v>18.23928451538086</v>
+      </c>
+      <c r="U10" t="n">
+        <v>24.5684928894043</v>
+      </c>
+      <c r="V10" t="n">
+        <v>26.42841529846191</v>
+      </c>
+      <c r="W10" t="n">
+        <v>26.28897285461426</v>
+      </c>
+      <c r="X10" t="n">
+        <v>24.34886169433594</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>20.23650741577148</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9.985575675964355</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.215451240539551</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8.015007019042969</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7.366292476654053</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7.223331928253174</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7.596325874328613</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9.581064224243164</v>
+      </c>
+      <c r="I11" t="n">
+        <v>10.44273567199707</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9.339900970458984</v>
+      </c>
+      <c r="K11" t="n">
+        <v>11.67934799194336</v>
+      </c>
+      <c r="L11" t="n">
+        <v>13.48491764068604</v>
+      </c>
+      <c r="M11" t="n">
+        <v>13.15933132171631</v>
+      </c>
+      <c r="N11" t="n">
+        <v>12.84700584411621</v>
+      </c>
+      <c r="O11" t="n">
+        <v>10.95395660400391</v>
+      </c>
+      <c r="P11" t="n">
+        <v>9.956117630004883</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>8.859251022338867</v>
+      </c>
+      <c r="R11" t="n">
+        <v>8.374359130859375</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10.12627983093262</v>
+      </c>
+      <c r="T11" t="n">
+        <v>11.59613513946533</v>
+      </c>
+      <c r="U11" t="n">
+        <v>12.77241230010986</v>
+      </c>
+      <c r="V11" t="n">
+        <v>12.72641086578369</v>
+      </c>
+      <c r="W11" t="n">
+        <v>11.49975299835205</v>
+      </c>
+      <c r="X11" t="n">
+        <v>11.1719856262207</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>10.35143280029297</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7.585681915283203</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.892635345458984</v>
+      </c>
+      <c r="D12" t="n">
+        <v>8.207074165344238</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6.766769886016846</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6.698132514953613</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7.229382991790771</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7.629929065704346</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8.064324378967285</v>
+      </c>
+      <c r="J12" t="n">
+        <v>8.700603485107422</v>
+      </c>
+      <c r="K12" t="n">
+        <v>10.15637874603271</v>
+      </c>
+      <c r="L12" t="n">
+        <v>11.26196765899658</v>
+      </c>
+      <c r="M12" t="n">
+        <v>10.84436511993408</v>
+      </c>
+      <c r="N12" t="n">
+        <v>9.136012077331543</v>
+      </c>
+      <c r="O12" t="n">
+        <v>8.459197044372559</v>
+      </c>
+      <c r="P12" t="n">
+        <v>7.963873386383057</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>8.338919639587402</v>
+      </c>
+      <c r="R12" t="n">
+        <v>8.561572074890137</v>
+      </c>
+      <c r="S12" t="n">
+        <v>8.426831245422363</v>
+      </c>
+      <c r="T12" t="n">
+        <v>9.314496040344238</v>
+      </c>
+      <c r="U12" t="n">
+        <v>10.55150604248047</v>
+      </c>
+      <c r="V12" t="n">
+        <v>12.43881607055664</v>
+      </c>
+      <c r="W12" t="n">
+        <v>11.0275764465332</v>
+      </c>
+      <c r="X12" t="n">
+        <v>8.762752532958984</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>7.850172519683838</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>8.705340385437012</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7.68482494354248</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7.296611785888672</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7.384124279022217</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6.994210720062256</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7.450466632843018</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8.045581817626953</v>
+      </c>
+      <c r="I13" t="n">
+        <v>8.457932472229004</v>
+      </c>
+      <c r="J13" t="n">
+        <v>8.754861831665039</v>
+      </c>
+      <c r="K13" t="n">
+        <v>10.60487365722656</v>
+      </c>
+      <c r="L13" t="n">
+        <v>11.45733165740967</v>
+      </c>
+      <c r="M13" t="n">
+        <v>11.42239665985107</v>
+      </c>
+      <c r="N13" t="n">
+        <v>9.95884895324707</v>
+      </c>
+      <c r="O13" t="n">
+        <v>9.073429107666016</v>
+      </c>
+      <c r="P13" t="n">
+        <v>9.184210777282715</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>7.993685722351074</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7.388935565948486</v>
+      </c>
+      <c r="S13" t="n">
+        <v>8.638171195983887</v>
+      </c>
+      <c r="T13" t="n">
+        <v>9.395683288574219</v>
+      </c>
+      <c r="U13" t="n">
+        <v>9.14891529083252</v>
+      </c>
+      <c r="V13" t="n">
+        <v>9.671148300170898</v>
+      </c>
+      <c r="W13" t="n">
+        <v>8.401134490966797</v>
+      </c>
+      <c r="X13" t="n">
+        <v>8.350086212158203</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8.917309761047363</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MES</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>14.16196346282959</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12.71015453338623</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.29729747772217</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.798477172851562</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8.288765907287598</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5.939541339874268</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5.324696063995361</v>
+      </c>
+      <c r="I2" t="n">
+        <v>7.886765003204346</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11.95125484466553</v>
+      </c>
+      <c r="K2" t="n">
+        <v>17.47769165039062</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.13555526733398</v>
+      </c>
+      <c r="M2" t="n">
+        <v>30.13752746582031</v>
+      </c>
+      <c r="N2" t="n">
+        <v>33.60299682617188</v>
+      </c>
+      <c r="O2" t="n">
+        <v>35.69460678100586</v>
+      </c>
+      <c r="P2" t="n">
+        <v>36.12519836425781</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>36.60996246337891</v>
+      </c>
+      <c r="R2" t="n">
+        <v>36.62221908569336</v>
+      </c>
+      <c r="S2" t="n">
+        <v>35.32122039794922</v>
+      </c>
+      <c r="T2" t="n">
+        <v>31.75873184204102</v>
+      </c>
+      <c r="U2" t="n">
+        <v>25.15963363647461</v>
+      </c>
+      <c r="V2" t="n">
+        <v>19.49287986755371</v>
+      </c>
+      <c r="W2" t="n">
+        <v>17.51034545898438</v>
+      </c>
+      <c r="X2" t="n">
+        <v>15.92224216461182</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>14.86482524871826</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>12.21531581878662</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11.14188098907471</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.06093978881836</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9.18308162689209</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7.946938991546631</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5.547476291656494</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.324141502380371</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.107644557952881</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9.598176002502441</v>
+      </c>
+      <c r="K3" t="n">
+        <v>14.51966285705566</v>
+      </c>
+      <c r="L3" t="n">
+        <v>20.43941307067871</v>
+      </c>
+      <c r="M3" t="n">
+        <v>26.79703521728516</v>
+      </c>
+      <c r="N3" t="n">
+        <v>31.92218780517578</v>
+      </c>
+      <c r="O3" t="n">
+        <v>34.22873687744141</v>
+      </c>
+      <c r="P3" t="n">
+        <v>35.01406860351562</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>35.25403594970703</v>
+      </c>
+      <c r="R3" t="n">
+        <v>34.83361434936523</v>
+      </c>
+      <c r="S3" t="n">
+        <v>33.15534591674805</v>
+      </c>
+      <c r="T3" t="n">
+        <v>29.2555103302002</v>
+      </c>
+      <c r="U3" t="n">
+        <v>21.66225814819336</v>
+      </c>
+      <c r="V3" t="n">
+        <v>16.89388847351074</v>
+      </c>
+      <c r="W3" t="n">
+        <v>15.56303882598877</v>
+      </c>
+      <c r="X3" t="n">
+        <v>13.92383480072021</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>12.78427886962891</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>11.74594879150391</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10.62892150878906</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.02210330963135</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9.079364776611328</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7.329648017883301</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.250432968139648</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.623215198516846</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.134113788604736</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7.738181114196777</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12.28092384338379</v>
+      </c>
+      <c r="L4" t="n">
+        <v>17.54394912719727</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23.05740356445312</v>
+      </c>
+      <c r="N4" t="n">
+        <v>28.33842468261719</v>
+      </c>
+      <c r="O4" t="n">
+        <v>32.72076034545898</v>
+      </c>
+      <c r="P4" t="n">
+        <v>34.27493286132812</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>34.42961883544922</v>
+      </c>
+      <c r="R4" t="n">
+        <v>33.69966888427734</v>
+      </c>
+      <c r="S4" t="n">
+        <v>31.56486701965332</v>
+      </c>
+      <c r="T4" t="n">
+        <v>25.86567878723145</v>
+      </c>
+      <c r="U4" t="n">
+        <v>17.2310905456543</v>
+      </c>
+      <c r="V4" t="n">
+        <v>14.45309829711914</v>
+      </c>
+      <c r="W4" t="n">
+        <v>14.19010448455811</v>
+      </c>
+      <c r="X4" t="n">
+        <v>12.84757137298584</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>12.28940105438232</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8.068155288696289</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8.193534851074219</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.671439647674561</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6.857954978942871</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5.927402973175049</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5.128072738647461</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.859049797058105</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.553389072418213</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.535687446594238</v>
+      </c>
+      <c r="K5" t="n">
+        <v>8.940042495727539</v>
+      </c>
+      <c r="L5" t="n">
+        <v>13.06436157226562</v>
+      </c>
+      <c r="M5" t="n">
+        <v>17.45282745361328</v>
+      </c>
+      <c r="N5" t="n">
+        <v>21.64634132385254</v>
+      </c>
+      <c r="O5" t="n">
+        <v>25.30267524719238</v>
+      </c>
+      <c r="P5" t="n">
+        <v>27.73079872131348</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>27.77655982971191</v>
+      </c>
+      <c r="R5" t="n">
+        <v>27.26966285705566</v>
+      </c>
+      <c r="S5" t="n">
+        <v>22.56105041503906</v>
+      </c>
+      <c r="T5" t="n">
+        <v>14.05197620391846</v>
+      </c>
+      <c r="U5" t="n">
+        <v>9.022845268249512</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7.784945487976074</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8.096969604492188</v>
+      </c>
+      <c r="X5" t="n">
+        <v>8.044407844543457</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.050728797912598</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5.315876007080078</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.204672813415527</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.178156852722168</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5.123592853546143</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4.758594512939453</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4.357749462127686</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.769784927368164</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.278173208236694</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.722569704055786</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.687534809112549</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.703525543212891</v>
+      </c>
+      <c r="M6" t="n">
+        <v>12.10704612731934</v>
+      </c>
+      <c r="N6" t="n">
+        <v>15.01094245910645</v>
+      </c>
+      <c r="O6" t="n">
+        <v>17.65062141418457</v>
+      </c>
+      <c r="P6" t="n">
+        <v>19.50783348083496</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>19.82380676269531</v>
+      </c>
+      <c r="R6" t="n">
+        <v>17.83839225769043</v>
+      </c>
+      <c r="S6" t="n">
+        <v>12.56314468383789</v>
+      </c>
+      <c r="T6" t="n">
+        <v>7.819408416748047</v>
+      </c>
+      <c r="U6" t="n">
+        <v>6.648169040679932</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6.340843677520752</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5.973628520965576</v>
+      </c>
+      <c r="X6" t="n">
+        <v>5.745909214019775</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>5.278196334838867</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5.236340045928955</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5.306896686553955</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.418076992034912</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.198714733123779</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5.081409931182861</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5.045495510101318</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.647074222564697</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.031798839569092</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.168614387512207</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.168904781341553</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6.923664093017578</v>
+      </c>
+      <c r="M7" t="n">
+        <v>9.250888824462891</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11.58649921417236</v>
+      </c>
+      <c r="O7" t="n">
+        <v>13.33138847351074</v>
+      </c>
+      <c r="P7" t="n">
+        <v>14.44387912750244</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>14.47530078887939</v>
+      </c>
+      <c r="R7" t="n">
+        <v>12.90072059631348</v>
+      </c>
+      <c r="S7" t="n">
+        <v>8.711559295654297</v>
+      </c>
+      <c r="T7" t="n">
+        <v>6.746725559234619</v>
+      </c>
+      <c r="U7" t="n">
+        <v>6.637918472290039</v>
+      </c>
+      <c r="V7" t="n">
+        <v>5.951425552368164</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5.97077465057373</v>
+      </c>
+      <c r="X7" t="n">
+        <v>5.815652847290039</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>5.563449382781982</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6.046702861785889</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.005500316619873</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.207440853118896</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6.350922584533691</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.278635025024414</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6.111239433288574</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.46305513381958</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.635011672973633</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.437753677368164</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.647623538970947</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8.046448707580566</v>
+      </c>
+      <c r="M8" t="n">
+        <v>10.36956310272217</v>
+      </c>
+      <c r="N8" t="n">
+        <v>12.67656230926514</v>
+      </c>
+      <c r="O8" t="n">
+        <v>14.92987442016602</v>
+      </c>
+      <c r="P8" t="n">
+        <v>16.88761520385742</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>17.30356216430664</v>
+      </c>
+      <c r="R8" t="n">
+        <v>15.4841365814209</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10.894944190979</v>
+      </c>
+      <c r="T8" t="n">
+        <v>7.360413551330566</v>
+      </c>
+      <c r="U8" t="n">
+        <v>6.663937568664551</v>
+      </c>
+      <c r="V8" t="n">
+        <v>6.08451509475708</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6.083733558654785</v>
+      </c>
+      <c r="X8" t="n">
+        <v>5.710330486297607</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>5.936427116394043</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8.017325401306152</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.872332572937012</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.86357593536377</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7.826839447021484</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7.494234085083008</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6.806856155395508</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5.860170841217041</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.794375896453857</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5.575680255889893</v>
+      </c>
+      <c r="K9" t="n">
+        <v>8.3746337890625</v>
+      </c>
+      <c r="L9" t="n">
+        <v>11.66951084136963</v>
+      </c>
+      <c r="M9" t="n">
+        <v>14.88653945922852</v>
+      </c>
+      <c r="N9" t="n">
+        <v>17.24447441101074</v>
+      </c>
+      <c r="O9" t="n">
+        <v>19.9711856842041</v>
+      </c>
+      <c r="P9" t="n">
+        <v>21.84811592102051</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>22.51731872558594</v>
+      </c>
+      <c r="R9" t="n">
+        <v>21.8521842956543</v>
+      </c>
+      <c r="S9" t="n">
+        <v>18.1088809967041</v>
+      </c>
+      <c r="T9" t="n">
+        <v>11.73408126831055</v>
+      </c>
+      <c r="U9" t="n">
+        <v>9.512958526611328</v>
+      </c>
+      <c r="V9" t="n">
+        <v>8.634722709655762</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7.968204021453857</v>
+      </c>
+      <c r="X9" t="n">
+        <v>8.150028228759766</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.225658416748047</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9.838962554931641</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.519733428955078</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.832612991333008</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8.43098258972168</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7.871115207672119</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6.747614860534668</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5.342593193054199</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.127998352050781</v>
+      </c>
+      <c r="J10" t="n">
+        <v>7.459070682525635</v>
+      </c>
+      <c r="K10" t="n">
+        <v>10.5564603805542</v>
+      </c>
+      <c r="L10" t="n">
+        <v>13.69791221618652</v>
+      </c>
+      <c r="M10" t="n">
+        <v>16.6070556640625</v>
+      </c>
+      <c r="N10" t="n">
+        <v>19.59228897094727</v>
+      </c>
+      <c r="O10" t="n">
+        <v>22.3462085723877</v>
+      </c>
+      <c r="P10" t="n">
+        <v>24.53288269042969</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>25.28365325927734</v>
+      </c>
+      <c r="R10" t="n">
+        <v>24.46100044250488</v>
+      </c>
+      <c r="S10" t="n">
+        <v>21.92263984680176</v>
+      </c>
+      <c r="T10" t="n">
+        <v>16.29032135009766</v>
+      </c>
+      <c r="U10" t="n">
+        <v>11.33938503265381</v>
+      </c>
+      <c r="V10" t="n">
+        <v>10.50626182556152</v>
+      </c>
+      <c r="W10" t="n">
+        <v>10.10179042816162</v>
+      </c>
+      <c r="X10" t="n">
+        <v>9.605012893676758</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9.748104095458984</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11.28444290161133</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10.84781646728516</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10.12951183319092</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9.21357250213623</v>
+      </c>
+      <c r="F11" t="n">
+        <v>8.089448928833008</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6.461205005645752</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5.134932518005371</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.603328704833984</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9.560961723327637</v>
+      </c>
+      <c r="K11" t="n">
+        <v>12.8226490020752</v>
+      </c>
+      <c r="L11" t="n">
+        <v>15.93587684631348</v>
+      </c>
+      <c r="M11" t="n">
+        <v>19.31545257568359</v>
+      </c>
+      <c r="N11" t="n">
+        <v>22.59925842285156</v>
+      </c>
+      <c r="O11" t="n">
+        <v>25.07021141052246</v>
+      </c>
+      <c r="P11" t="n">
+        <v>26.62422180175781</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>27.20719718933105</v>
+      </c>
+      <c r="R11" t="n">
+        <v>26.93839073181152</v>
+      </c>
+      <c r="S11" t="n">
+        <v>25.29205131530762</v>
+      </c>
+      <c r="T11" t="n">
+        <v>21.03052711486816</v>
+      </c>
+      <c r="U11" t="n">
+        <v>14.96348476409912</v>
+      </c>
+      <c r="V11" t="n">
+        <v>13.28391075134277</v>
+      </c>
+      <c r="W11" t="n">
+        <v>13.12367057800293</v>
+      </c>
+      <c r="X11" t="n">
+        <v>12.17125034332275</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>11.71303558349609</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>12.56359672546387</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11.7747631072998</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10.8305196762085</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9.758101463317871</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8.346409797668457</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6.546003341674805</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6.083145141601562</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8.065611839294434</v>
+      </c>
+      <c r="J12" t="n">
+        <v>11.15748977661133</v>
+      </c>
+      <c r="K12" t="n">
+        <v>14.84642791748047</v>
+      </c>
+      <c r="L12" t="n">
+        <v>19.42779731750488</v>
+      </c>
+      <c r="M12" t="n">
+        <v>23.81939506530762</v>
+      </c>
+      <c r="N12" t="n">
+        <v>27.11392021179199</v>
+      </c>
+      <c r="O12" t="n">
+        <v>29.39938735961914</v>
+      </c>
+      <c r="P12" t="n">
+        <v>30.75879096984863</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>31.30201148986816</v>
+      </c>
+      <c r="R12" t="n">
+        <v>30.88848876953125</v>
+      </c>
+      <c r="S12" t="n">
+        <v>29.2263126373291</v>
+      </c>
+      <c r="T12" t="n">
+        <v>25.11911773681641</v>
+      </c>
+      <c r="U12" t="n">
+        <v>19.43205451965332</v>
+      </c>
+      <c r="V12" t="n">
+        <v>16.02101516723633</v>
+      </c>
+      <c r="W12" t="n">
+        <v>15.4673376083374</v>
+      </c>
+      <c r="X12" t="n">
+        <v>14.15658283233643</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>13.35122966766357</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>13.02376270294189</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11.79753112792969</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10.79163360595703</v>
+      </c>
+      <c r="E13" t="n">
+        <v>9.847742080688477</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8.160572052001953</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6.151332378387451</v>
+      </c>
+      <c r="H13" t="n">
+        <v>6.506903171539307</v>
+      </c>
+      <c r="I13" t="n">
+        <v>9.134222030639648</v>
+      </c>
+      <c r="J13" t="n">
+        <v>12.47758865356445</v>
+      </c>
+      <c r="K13" t="n">
+        <v>16.91757011413574</v>
+      </c>
+      <c r="L13" t="n">
+        <v>22.87177276611328</v>
+      </c>
+      <c r="M13" t="n">
+        <v>27.96371269226074</v>
+      </c>
+      <c r="N13" t="n">
+        <v>31.66980934143066</v>
+      </c>
+      <c r="O13" t="n">
+        <v>33.7625846862793</v>
+      </c>
+      <c r="P13" t="n">
+        <v>34.65412902832031</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>35.49483871459961</v>
+      </c>
+      <c r="R13" t="n">
+        <v>35.11248016357422</v>
+      </c>
+      <c r="S13" t="n">
+        <v>32.99281692504883</v>
+      </c>
+      <c r="T13" t="n">
+        <v>28.75540542602539</v>
+      </c>
+      <c r="U13" t="n">
+        <v>22.71866607666016</v>
+      </c>
+      <c r="V13" t="n">
+        <v>17.47722625732422</v>
+      </c>
+      <c r="W13" t="n">
+        <v>15.93719577789307</v>
+      </c>
+      <c r="X13" t="n">
+        <v>15.17645168304443</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>14.05562877655029</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MES</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.2110336720943451</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2995870411396027</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6621754169464111</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.000855207443237</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.001664042472839</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.4018837809562683</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.013758420944214</v>
+      </c>
+      <c r="I2" t="n">
+        <v>48.53091049194336</v>
+      </c>
+      <c r="J2" t="n">
+        <v>184.1527709960938</v>
+      </c>
+      <c r="K2" t="n">
+        <v>348.2390747070312</v>
+      </c>
+      <c r="L2" t="n">
+        <v>518.3848266601562</v>
+      </c>
+      <c r="M2" t="n">
+        <v>662.9153442382812</v>
+      </c>
+      <c r="N2" t="n">
+        <v>773.6226806640625</v>
+      </c>
+      <c r="O2" t="n">
+        <v>840.6258544921875</v>
+      </c>
+      <c r="P2" t="n">
+        <v>839.8914794921875</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>756.3966674804688</v>
+      </c>
+      <c r="R2" t="n">
+        <v>683.328369140625</v>
+      </c>
+      <c r="S2" t="n">
+        <v>541.8739013671875</v>
+      </c>
+      <c r="T2" t="n">
+        <v>370.7870788574219</v>
+      </c>
+      <c r="U2" t="n">
+        <v>183.2044982910156</v>
+      </c>
+      <c r="V2" t="n">
+        <v>46.62723922729492</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.7762365937232971</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.1750195622444153</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.2270427346229553</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.07481373101472855</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.07359523326158524</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07237673550844193</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0781344473361969</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1050026789307594</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1448851823806763</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.2687084376811981</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10.62338256835938</v>
+      </c>
+      <c r="J3" t="n">
+        <v>117.4832305908203</v>
+      </c>
+      <c r="K3" t="n">
+        <v>272.5902404785156</v>
+      </c>
+      <c r="L3" t="n">
+        <v>443.8665771484375</v>
+      </c>
+      <c r="M3" t="n">
+        <v>608.5359497070312</v>
+      </c>
+      <c r="N3" t="n">
+        <v>738.6064453125</v>
+      </c>
+      <c r="O3" t="n">
+        <v>809.3429565429688</v>
+      </c>
+      <c r="P3" t="n">
+        <v>800.0379638671875</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>743.7052612304688</v>
+      </c>
+      <c r="R3" t="n">
+        <v>608.2662353515625</v>
+      </c>
+      <c r="S3" t="n">
+        <v>493.5447998046875</v>
+      </c>
+      <c r="T3" t="n">
+        <v>319.1033325195312</v>
+      </c>
+      <c r="U3" t="n">
+        <v>136.9885559082031</v>
+      </c>
+      <c r="V3" t="n">
+        <v>17.73540687561035</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.08667276054620743</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.07184863090515137</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.07384255528450012</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.118479996919632</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1165162473917007</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1189524382352829</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1289372146129608</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1389611214399338</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.162092313170433</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1865310817956924</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.145411252975464</v>
+      </c>
+      <c r="J4" t="n">
+        <v>62.30025100708008</v>
+      </c>
+      <c r="K4" t="n">
+        <v>205.33642578125</v>
+      </c>
+      <c r="L4" t="n">
+        <v>365.7985229492188</v>
+      </c>
+      <c r="M4" t="n">
+        <v>513.6099853515625</v>
+      </c>
+      <c r="N4" t="n">
+        <v>637.5875244140625</v>
+      </c>
+      <c r="O4" t="n">
+        <v>712.1822509765625</v>
+      </c>
+      <c r="P4" t="n">
+        <v>716.4317016601562</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>652.2921752929688</v>
+      </c>
+      <c r="R4" t="n">
+        <v>523.0656127929688</v>
+      </c>
+      <c r="S4" t="n">
+        <v>369.2074890136719</v>
+      </c>
+      <c r="T4" t="n">
+        <v>212.8278350830078</v>
+      </c>
+      <c r="U4" t="n">
+        <v>51.84194946289062</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.309191226959229</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.1276534646749496</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.1213695928454399</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.1208919435739517</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2464959323406219</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1411010473966599</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1568618267774582</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.240009993314743</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.284307599067688</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.297122985124588</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3267739117145538</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.4537664353847504</v>
+      </c>
+      <c r="J5" t="n">
+        <v>21.20001220703125</v>
+      </c>
+      <c r="K5" t="n">
+        <v>115.3888473510742</v>
+      </c>
+      <c r="L5" t="n">
+        <v>236.3997955322266</v>
+      </c>
+      <c r="M5" t="n">
+        <v>360.5637817382812</v>
+      </c>
+      <c r="N5" t="n">
+        <v>470.2414855957031</v>
+      </c>
+      <c r="O5" t="n">
+        <v>522.04296875</v>
+      </c>
+      <c r="P5" t="n">
+        <v>512.3524169921875</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>454.2833251953125</v>
+      </c>
+      <c r="R5" t="n">
+        <v>355.1402587890625</v>
+      </c>
+      <c r="S5" t="n">
+        <v>194.15380859375</v>
+      </c>
+      <c r="T5" t="n">
+        <v>82.01092529296875</v>
+      </c>
+      <c r="U5" t="n">
+        <v>4.36949348449707</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.2841294705867767</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.3410314321517944</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.3221984207630157</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.2965167462825775</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.135358527302742</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1655817925930023</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.174464225769043</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1981523334980011</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2229152172803879</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.202152743935585</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2154198735952377</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.2403238713741302</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.157143592834473</v>
+      </c>
+      <c r="K6" t="n">
+        <v>49.42002868652344</v>
+      </c>
+      <c r="L6" t="n">
+        <v>143.2662658691406</v>
+      </c>
+      <c r="M6" t="n">
+        <v>231.6867523193359</v>
+      </c>
+      <c r="N6" t="n">
+        <v>313.095703125</v>
+      </c>
+      <c r="O6" t="n">
+        <v>356.4896240234375</v>
+      </c>
+      <c r="P6" t="n">
+        <v>349.2371215820312</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>302.1536865234375</v>
+      </c>
+      <c r="R6" t="n">
+        <v>213.5845184326172</v>
+      </c>
+      <c r="S6" t="n">
+        <v>96.36322784423828</v>
+      </c>
+      <c r="T6" t="n">
+        <v>17.8724308013916</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.2032079100608826</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.0986405611038208</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.1148704439401627</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.1110964566469193</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.1121422871947289</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1738526970148087</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1830709427595139</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.195772647857666</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.2139568328857422</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2307108342647552</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.2262753993272781</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.243972048163414</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.2918539643287659</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.157131910324097</v>
+      </c>
+      <c r="K7" t="n">
+        <v>21.41759300231934</v>
+      </c>
+      <c r="L7" t="n">
+        <v>83.93755340576172</v>
+      </c>
+      <c r="M7" t="n">
+        <v>166.7319488525391</v>
+      </c>
+      <c r="N7" t="n">
+        <v>236.9019775390625</v>
+      </c>
+      <c r="O7" t="n">
+        <v>281.1641540527344</v>
+      </c>
+      <c r="P7" t="n">
+        <v>284.1112976074219</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>250.8089752197266</v>
+      </c>
+      <c r="R7" t="n">
+        <v>181.3969116210938</v>
+      </c>
+      <c r="S7" t="n">
+        <v>82.05016326904297</v>
+      </c>
+      <c r="T7" t="n">
+        <v>9.846576690673828</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.1470730155706406</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.1268457770347595</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.1379434615373611</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.1663239449262619</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.1700141131877899</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1111569032073021</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1193972304463387</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1385715007781982</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.14500692486763</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1535240858793259</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.154399186372757</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.1533450037240982</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.1631374061107635</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.094941973686218</v>
+      </c>
+      <c r="K8" t="n">
+        <v>24.10948944091797</v>
+      </c>
+      <c r="L8" t="n">
+        <v>91.15968322753906</v>
+      </c>
+      <c r="M8" t="n">
+        <v>176.8298492431641</v>
+      </c>
+      <c r="N8" t="n">
+        <v>255.5740356445312</v>
+      </c>
+      <c r="O8" t="n">
+        <v>307.303466796875</v>
+      </c>
+      <c r="P8" t="n">
+        <v>330.49853515625</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>299.7564086914062</v>
+      </c>
+      <c r="R8" t="n">
+        <v>227.074462890625</v>
+      </c>
+      <c r="S8" t="n">
+        <v>124.3024063110352</v>
+      </c>
+      <c r="T8" t="n">
+        <v>24.29938888549805</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.3107705116271973</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.1044509187340736</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.09844367206096649</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.1003711596131325</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.1073949337005615</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1547430753707886</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1603039354085922</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1684680283069611</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1718200892210007</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1639617532491684</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.1655126959085464</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.167067363858223</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1803679168224335</v>
+      </c>
+      <c r="J9" t="n">
+        <v>8.163517951965332</v>
+      </c>
+      <c r="K9" t="n">
+        <v>64.52075958251953</v>
+      </c>
+      <c r="L9" t="n">
+        <v>156.0203704833984</v>
+      </c>
+      <c r="M9" t="n">
+        <v>256.6300354003906</v>
+      </c>
+      <c r="N9" t="n">
+        <v>357.6890258789062</v>
+      </c>
+      <c r="O9" t="n">
+        <v>418.3406372070312</v>
+      </c>
+      <c r="P9" t="n">
+        <v>423.8538513183594</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>384.103759765625</v>
+      </c>
+      <c r="R9" t="n">
+        <v>303.0164184570312</v>
+      </c>
+      <c r="S9" t="n">
+        <v>162.0549163818359</v>
+      </c>
+      <c r="T9" t="n">
+        <v>58.40609359741211</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.110314846038818</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.1345923990011215</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.13533915579319</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.1395602524280548</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.151924267411232</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1098350957036018</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1030760630965233</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1096601188182831</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1118424758315086</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1141775250434875</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.117213748395443</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1211537420749664</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.299689531326294</v>
+      </c>
+      <c r="J10" t="n">
+        <v>45.21520614624023</v>
+      </c>
+      <c r="K10" t="n">
+        <v>143.2995147705078</v>
+      </c>
+      <c r="L10" t="n">
+        <v>260.0065002441406</v>
+      </c>
+      <c r="M10" t="n">
+        <v>378.0799560546875</v>
+      </c>
+      <c r="N10" t="n">
+        <v>461.5079040527344</v>
+      </c>
+      <c r="O10" t="n">
+        <v>506.0914306640625</v>
+      </c>
+      <c r="P10" t="n">
+        <v>495.4097900390625</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>443.3706359863281</v>
+      </c>
+      <c r="R10" t="n">
+        <v>342.6429748535156</v>
+      </c>
+      <c r="S10" t="n">
+        <v>219.0881958007812</v>
+      </c>
+      <c r="T10" t="n">
+        <v>100.5277938842773</v>
+      </c>
+      <c r="U10" t="n">
+        <v>10.74280071258545</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.1069493144750595</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.1056812554597855</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.106741301715374</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.1062538623809814</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.074086032807827</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.07508672028779984</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.07597412914037704</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.07675237208604813</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.07745835930109024</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.08181954920291901</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.4979621767997742</v>
+      </c>
+      <c r="I11" t="n">
+        <v>23.67819404602051</v>
+      </c>
+      <c r="J11" t="n">
+        <v>127.2290954589844</v>
+      </c>
+      <c r="K11" t="n">
+        <v>256.7251586914062</v>
+      </c>
+      <c r="L11" t="n">
+        <v>399.5629272460938</v>
+      </c>
+      <c r="M11" t="n">
+        <v>528.4864501953125</v>
+      </c>
+      <c r="N11" t="n">
+        <v>611.2815551757812</v>
+      </c>
+      <c r="O11" t="n">
+        <v>650.8462524414062</v>
+      </c>
+      <c r="P11" t="n">
+        <v>640.7760620117188</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>557.9564208984375</v>
+      </c>
+      <c r="R11" t="n">
+        <v>451.0830993652344</v>
+      </c>
+      <c r="S11" t="n">
+        <v>328.8821105957031</v>
+      </c>
+      <c r="T11" t="n">
+        <v>157.5461578369141</v>
+      </c>
+      <c r="U11" t="n">
+        <v>45.19318389892578</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.7455869913101196</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.06817039847373962</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.06879705935716629</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.06867574900388718</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.07165174931287766</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.07146984338760376</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0724698081612587</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.08129826933145523</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.07903578132390976</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.08107025921344757</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4.127899646759033</v>
+      </c>
+      <c r="I12" t="n">
+        <v>73.96307373046875</v>
+      </c>
+      <c r="J12" t="n">
+        <v>210.5008239746094</v>
+      </c>
+      <c r="K12" t="n">
+        <v>366.6237487792969</v>
+      </c>
+      <c r="L12" t="n">
+        <v>527.1138305664062</v>
+      </c>
+      <c r="M12" t="n">
+        <v>665.9188842773438</v>
+      </c>
+      <c r="N12" t="n">
+        <v>754.24365234375</v>
+      </c>
+      <c r="O12" t="n">
+        <v>790.9752807617188</v>
+      </c>
+      <c r="P12" t="n">
+        <v>784.6282348632812</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>698.53173828125</v>
+      </c>
+      <c r="R12" t="n">
+        <v>600.9293823242188</v>
+      </c>
+      <c r="S12" t="n">
+        <v>447.0909423828125</v>
+      </c>
+      <c r="T12" t="n">
+        <v>279.0701293945312</v>
+      </c>
+      <c r="U12" t="n">
+        <v>108.7994003295898</v>
+      </c>
+      <c r="V12" t="n">
+        <v>10.06986522674561</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.07161141186952591</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.07102499902248383</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.07169582694768906</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.07583201676607132</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.07618986070156097</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.07729201018810272</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.07749567180871964</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.07814888656139374</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.07878971099853516</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5.573652744293213</v>
+      </c>
+      <c r="I13" t="n">
+        <v>85.83290863037109</v>
+      </c>
+      <c r="J13" t="n">
+        <v>218.6175079345703</v>
+      </c>
+      <c r="K13" t="n">
+        <v>369.1993713378906</v>
+      </c>
+      <c r="L13" t="n">
+        <v>516.5241088867188</v>
+      </c>
+      <c r="M13" t="n">
+        <v>655.0082397460938</v>
+      </c>
+      <c r="N13" t="n">
+        <v>767.745361328125</v>
+      </c>
+      <c r="O13" t="n">
+        <v>835.2018432617188</v>
+      </c>
+      <c r="P13" t="n">
+        <v>835.0149536132812</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>766.2069091796875</v>
+      </c>
+      <c r="R13" t="n">
+        <v>681.8993530273438</v>
+      </c>
+      <c r="S13" t="n">
+        <v>529.9734497070312</v>
+      </c>
+      <c r="T13" t="n">
+        <v>361.468017578125</v>
+      </c>
+      <c r="U13" t="n">
+        <v>182.2129669189453</v>
+      </c>
+      <c r="V13" t="n">
+        <v>40.7364616394043</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.3942892849445343</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.07928761094808578</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.07965187728404999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MES</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>19.35547637939453</v>
+      </c>
+      <c r="C2" t="n">
+        <v>18.2629222869873</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.39745330810547</v>
+      </c>
+      <c r="E2" t="n">
+        <v>16.52073097229004</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15.73645305633545</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.08937740325928</v>
+      </c>
+      <c r="H2" t="n">
+        <v>14.47009658813477</v>
+      </c>
+      <c r="I2" t="n">
+        <v>14.4828577041626</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15.86663627624512</v>
+      </c>
+      <c r="K2" t="n">
+        <v>17.61633110046387</v>
+      </c>
+      <c r="L2" t="n">
+        <v>19.61551856994629</v>
+      </c>
+      <c r="M2" t="n">
+        <v>21.81728744506836</v>
+      </c>
+      <c r="N2" t="n">
+        <v>23.91461944580078</v>
+      </c>
+      <c r="O2" t="n">
+        <v>25.63745498657227</v>
+      </c>
+      <c r="P2" t="n">
+        <v>26.99348068237305</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>28.04403495788574</v>
+      </c>
+      <c r="R2" t="n">
+        <v>28.77377510070801</v>
+      </c>
+      <c r="S2" t="n">
+        <v>29.10317230224609</v>
+      </c>
+      <c r="T2" t="n">
+        <v>28.81849098205566</v>
+      </c>
+      <c r="U2" t="n">
+        <v>27.75225830078125</v>
+      </c>
+      <c r="V2" t="n">
+        <v>25.74348640441895</v>
+      </c>
+      <c r="W2" t="n">
+        <v>23.42984771728516</v>
+      </c>
+      <c r="X2" t="n">
+        <v>21.92206382751465</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>20.62823677062988</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>18.4736328125</v>
+      </c>
+      <c r="C3" t="n">
+        <v>17.49942970275879</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.66995048522949</v>
+      </c>
+      <c r="E3" t="n">
+        <v>15.88634490966797</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15.22548484802246</v>
+      </c>
+      <c r="G3" t="n">
+        <v>14.63129043579102</v>
+      </c>
+      <c r="H3" t="n">
+        <v>14.05342960357666</v>
+      </c>
+      <c r="I3" t="n">
+        <v>13.66970634460449</v>
+      </c>
+      <c r="J3" t="n">
+        <v>14.630539894104</v>
+      </c>
+      <c r="K3" t="n">
+        <v>16.3669261932373</v>
+      </c>
+      <c r="L3" t="n">
+        <v>18.2835521697998</v>
+      </c>
+      <c r="M3" t="n">
+        <v>20.44076919555664</v>
+      </c>
+      <c r="N3" t="n">
+        <v>22.67904281616211</v>
+      </c>
+      <c r="O3" t="n">
+        <v>24.62726402282715</v>
+      </c>
+      <c r="P3" t="n">
+        <v>26.04609298706055</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>27.25029754638672</v>
+      </c>
+      <c r="R3" t="n">
+        <v>27.9604663848877</v>
+      </c>
+      <c r="S3" t="n">
+        <v>28.34870910644531</v>
+      </c>
+      <c r="T3" t="n">
+        <v>28.06514358520508</v>
+      </c>
+      <c r="U3" t="n">
+        <v>26.89838790893555</v>
+      </c>
+      <c r="V3" t="n">
+        <v>24.53854370117188</v>
+      </c>
+      <c r="W3" t="n">
+        <v>22.36113548278809</v>
+      </c>
+      <c r="X3" t="n">
+        <v>20.9987678527832</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>19.61711502075195</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>16.59979629516602</v>
+      </c>
+      <c r="C4" t="n">
+        <v>15.68541145324707</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.95584201812744</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14.24501514434814</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13.64262866973877</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13.06364631652832</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12.51437568664551</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12.07892990112305</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12.41888904571533</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14.04754066467285</v>
+      </c>
+      <c r="L4" t="n">
+        <v>15.97202587127686</v>
+      </c>
+      <c r="M4" t="n">
+        <v>18.09531211853027</v>
+      </c>
+      <c r="N4" t="n">
+        <v>20.27610206604004</v>
+      </c>
+      <c r="O4" t="n">
+        <v>22.35638809204102</v>
+      </c>
+      <c r="P4" t="n">
+        <v>24.10085105895996</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>25.3122673034668</v>
+      </c>
+      <c r="R4" t="n">
+        <v>25.94641494750977</v>
+      </c>
+      <c r="S4" t="n">
+        <v>26.14131736755371</v>
+      </c>
+      <c r="T4" t="n">
+        <v>25.67390441894531</v>
+      </c>
+      <c r="U4" t="n">
+        <v>24.13773918151855</v>
+      </c>
+      <c r="V4" t="n">
+        <v>21.74866104125977</v>
+      </c>
+      <c r="W4" t="n">
+        <v>20.12718200683594</v>
+      </c>
+      <c r="X4" t="n">
+        <v>18.92032623291016</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>17.6396598815918</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>12.77665615081787</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12.11201286315918</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.6218204498291</v>
+      </c>
+      <c r="E5" t="n">
+        <v>11.15796852111816</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10.65069484710693</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10.20550537109375</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9.827977180480957</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9.490809440612793</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9.399321556091309</v>
+      </c>
+      <c r="K5" t="n">
+        <v>10.48319244384766</v>
+      </c>
+      <c r="L5" t="n">
+        <v>11.99277782440186</v>
+      </c>
+      <c r="M5" t="n">
+        <v>13.75616645812988</v>
+      </c>
+      <c r="N5" t="n">
+        <v>15.68253898620605</v>
+      </c>
+      <c r="O5" t="n">
+        <v>17.58667182922363</v>
+      </c>
+      <c r="P5" t="n">
+        <v>19.17588424682617</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>20.21631622314453</v>
+      </c>
+      <c r="R5" t="n">
+        <v>20.66130256652832</v>
+      </c>
+      <c r="S5" t="n">
+        <v>20.47950744628906</v>
+      </c>
+      <c r="T5" t="n">
+        <v>19.54411315917969</v>
+      </c>
+      <c r="U5" t="n">
+        <v>17.79407501220703</v>
+      </c>
+      <c r="V5" t="n">
+        <v>16.26203155517578</v>
+      </c>
+      <c r="W5" t="n">
+        <v>15.20685768127441</v>
+      </c>
+      <c r="X5" t="n">
+        <v>14.28409004211426</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>13.37316608428955</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>9.82607364654541</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9.416106224060059</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.060539245605469</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8.70831298828125</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8.469479560852051</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8.213125228881836</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8.017304420471191</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.828633308410645</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7.648186206817627</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8.180051803588867</v>
+      </c>
+      <c r="L6" t="n">
+        <v>9.59136962890625</v>
+      </c>
+      <c r="M6" t="n">
+        <v>11.13273429870605</v>
+      </c>
+      <c r="N6" t="n">
+        <v>12.65147399902344</v>
+      </c>
+      <c r="O6" t="n">
+        <v>14.06467533111572</v>
+      </c>
+      <c r="P6" t="n">
+        <v>15.17620468139648</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>15.9694185256958</v>
+      </c>
+      <c r="R6" t="n">
+        <v>16.22161865234375</v>
+      </c>
+      <c r="S6" t="n">
+        <v>15.7476692199707</v>
+      </c>
+      <c r="T6" t="n">
+        <v>14.50362205505371</v>
+      </c>
+      <c r="U6" t="n">
+        <v>13.1557674407959</v>
+      </c>
+      <c r="V6" t="n">
+        <v>12.25539970397949</v>
+      </c>
+      <c r="W6" t="n">
+        <v>11.4896936416626</v>
+      </c>
+      <c r="X6" t="n">
+        <v>10.8370418548584</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>10.24900054931641</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6.499671459197998</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.177952289581299</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.906891822814941</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.654407978057861</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5.406053066253662</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5.233719825744629</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5.07262134552002</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.952113628387451</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.858089923858643</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.990486621856689</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5.906260967254639</v>
+      </c>
+      <c r="M7" t="n">
+        <v>7.215471744537354</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8.500487327575684</v>
+      </c>
+      <c r="O7" t="n">
+        <v>9.681581497192383</v>
+      </c>
+      <c r="P7" t="n">
+        <v>10.6212797164917</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>11.28017616271973</v>
+      </c>
+      <c r="R7" t="n">
+        <v>11.5068826675415</v>
+      </c>
+      <c r="S7" t="n">
+        <v>11.16722583770752</v>
+      </c>
+      <c r="T7" t="n">
+        <v>10.0550365447998</v>
+      </c>
+      <c r="U7" t="n">
+        <v>9.024983406066895</v>
+      </c>
+      <c r="V7" t="n">
+        <v>8.360528945922852</v>
+      </c>
+      <c r="W7" t="n">
+        <v>7.861923694610596</v>
+      </c>
+      <c r="X7" t="n">
+        <v>7.371691703796387</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>6.949395179748535</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6.885282516479492</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.514046192169189</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.194809913635254</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.898349761962891</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5.656546115875244</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5.46141242980957</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.263269424438477</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.113098621368408</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.942929267883301</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.118328094482422</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6.030227661132812</v>
+      </c>
+      <c r="M8" t="n">
+        <v>7.28432035446167</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8.527669906616211</v>
+      </c>
+      <c r="O8" t="n">
+        <v>9.746481895446777</v>
+      </c>
+      <c r="P8" t="n">
+        <v>10.8505744934082</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>11.66733169555664</v>
+      </c>
+      <c r="R8" t="n">
+        <v>11.94711971282959</v>
+      </c>
+      <c r="S8" t="n">
+        <v>11.62477111816406</v>
+      </c>
+      <c r="T8" t="n">
+        <v>10.66419792175293</v>
+      </c>
+      <c r="U8" t="n">
+        <v>9.568545341491699</v>
+      </c>
+      <c r="V8" t="n">
+        <v>8.826574325561523</v>
+      </c>
+      <c r="W8" t="n">
+        <v>8.22559928894043</v>
+      </c>
+      <c r="X8" t="n">
+        <v>7.734513282775879</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>7.268191814422607</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8.186357498168945</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.732654094696045</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.285820960998535</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.89059591293335</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6.527260303497314</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6.197391033172607</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5.901246547698975</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.675469398498535</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5.587094783782959</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6.261632919311523</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7.458017826080322</v>
+      </c>
+      <c r="M9" t="n">
+        <v>8.761992454528809</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10.23154163360596</v>
+      </c>
+      <c r="O9" t="n">
+        <v>11.70504474639893</v>
+      </c>
+      <c r="P9" t="n">
+        <v>12.92152786254883</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>13.76210403442383</v>
+      </c>
+      <c r="R9" t="n">
+        <v>14.15506935119629</v>
+      </c>
+      <c r="S9" t="n">
+        <v>13.88911247253418</v>
+      </c>
+      <c r="T9" t="n">
+        <v>13.13723564147949</v>
+      </c>
+      <c r="U9" t="n">
+        <v>11.83307552337646</v>
+      </c>
+      <c r="V9" t="n">
+        <v>10.85330486297607</v>
+      </c>
+      <c r="W9" t="n">
+        <v>10.09965705871582</v>
+      </c>
+      <c r="X9" t="n">
+        <v>9.419034957885742</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.82426929473877</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10.13698959350586</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.548406600952148</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9.009955406188965</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8.536293983459473</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8.102489471435547</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7.737077713012695</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7.416284561157227</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7.152099132537842</v>
+      </c>
+      <c r="J10" t="n">
+        <v>7.43408727645874</v>
+      </c>
+      <c r="K10" t="n">
+        <v>8.498029708862305</v>
+      </c>
+      <c r="L10" t="n">
+        <v>9.779794692993164</v>
+      </c>
+      <c r="M10" t="n">
+        <v>11.27703094482422</v>
+      </c>
+      <c r="N10" t="n">
+        <v>12.8718957901001</v>
+      </c>
+      <c r="O10" t="n">
+        <v>14.3845100402832</v>
+      </c>
+      <c r="P10" t="n">
+        <v>15.611741065979</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>16.48824882507324</v>
+      </c>
+      <c r="R10" t="n">
+        <v>16.84240531921387</v>
+      </c>
+      <c r="S10" t="n">
+        <v>16.66661071777344</v>
+      </c>
+      <c r="T10" t="n">
+        <v>16.00875663757324</v>
+      </c>
+      <c r="U10" t="n">
+        <v>14.67283725738525</v>
+      </c>
+      <c r="V10" t="n">
+        <v>13.32159519195557</v>
+      </c>
+      <c r="W10" t="n">
+        <v>12.41493988037109</v>
+      </c>
+      <c r="X10" t="n">
+        <v>11.61259078979492</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>10.80973720550537</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>12.37724208831787</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11.60186100006104</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10.94963073730469</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10.35568714141846</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9.785666465759277</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9.302655220031738</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8.873583793640137</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8.717353820800781</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9.70964527130127</v>
+      </c>
+      <c r="K11" t="n">
+        <v>11.06933116912842</v>
+      </c>
+      <c r="L11" t="n">
+        <v>12.64462471008301</v>
+      </c>
+      <c r="M11" t="n">
+        <v>14.44900798797607</v>
+      </c>
+      <c r="N11" t="n">
+        <v>16.16422843933105</v>
+      </c>
+      <c r="O11" t="n">
+        <v>17.7142162322998</v>
+      </c>
+      <c r="P11" t="n">
+        <v>18.91048812866211</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>19.69366836547852</v>
+      </c>
+      <c r="R11" t="n">
+        <v>20.08659362792969</v>
+      </c>
+      <c r="S11" t="n">
+        <v>20.07773017883301</v>
+      </c>
+      <c r="T11" t="n">
+        <v>19.54981994628906</v>
+      </c>
+      <c r="U11" t="n">
+        <v>18.29101371765137</v>
+      </c>
+      <c r="V11" t="n">
+        <v>16.47232246398926</v>
+      </c>
+      <c r="W11" t="n">
+        <v>15.21207237243652</v>
+      </c>
+      <c r="X11" t="n">
+        <v>14.28523540496826</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>13.34035587310791</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>15.3095588684082</v>
+      </c>
+      <c r="C12" t="n">
+        <v>14.33828163146973</v>
+      </c>
+      <c r="D12" t="n">
+        <v>13.50056838989258</v>
+      </c>
+      <c r="E12" t="n">
+        <v>12.72552013397217</v>
+      </c>
+      <c r="F12" t="n">
+        <v>12.03895854949951</v>
+      </c>
+      <c r="G12" t="n">
+        <v>11.41770458221436</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10.91013717651367</v>
+      </c>
+      <c r="I12" t="n">
+        <v>11.289963722229</v>
+      </c>
+      <c r="J12" t="n">
+        <v>12.61690711975098</v>
+      </c>
+      <c r="K12" t="n">
+        <v>14.3252420425415</v>
+      </c>
+      <c r="L12" t="n">
+        <v>16.29704856872559</v>
+      </c>
+      <c r="M12" t="n">
+        <v>18.38283157348633</v>
+      </c>
+      <c r="N12" t="n">
+        <v>20.29593467712402</v>
+      </c>
+      <c r="O12" t="n">
+        <v>21.84036636352539</v>
+      </c>
+      <c r="P12" t="n">
+        <v>23.07408905029297</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>23.98572731018066</v>
+      </c>
+      <c r="R12" t="n">
+        <v>24.52869606018066</v>
+      </c>
+      <c r="S12" t="n">
+        <v>24.57538795471191</v>
+      </c>
+      <c r="T12" t="n">
+        <v>24.08059501647949</v>
+      </c>
+      <c r="U12" t="n">
+        <v>22.81254005432129</v>
+      </c>
+      <c r="V12" t="n">
+        <v>20.67126083374023</v>
+      </c>
+      <c r="W12" t="n">
+        <v>18.88474082946777</v>
+      </c>
+      <c r="X12" t="n">
+        <v>17.68149375915527</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>16.52509689331055</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>17.59389495849609</v>
+      </c>
+      <c r="C13" t="n">
+        <v>16.49716377258301</v>
+      </c>
+      <c r="D13" t="n">
+        <v>15.53663444519043</v>
+      </c>
+      <c r="E13" t="n">
+        <v>14.68628692626953</v>
+      </c>
+      <c r="F13" t="n">
+        <v>13.90083312988281</v>
+      </c>
+      <c r="G13" t="n">
+        <v>13.25777244567871</v>
+      </c>
+      <c r="H13" t="n">
+        <v>12.73801612854004</v>
+      </c>
+      <c r="I13" t="n">
+        <v>13.28140926361084</v>
+      </c>
+      <c r="J13" t="n">
+        <v>14.62713050842285</v>
+      </c>
+      <c r="K13" t="n">
+        <v>16.34768676757812</v>
+      </c>
+      <c r="L13" t="n">
+        <v>18.42000770568848</v>
+      </c>
+      <c r="M13" t="n">
+        <v>20.53864860534668</v>
+      </c>
+      <c r="N13" t="n">
+        <v>22.56155776977539</v>
+      </c>
+      <c r="O13" t="n">
+        <v>24.22126007080078</v>
+      </c>
+      <c r="P13" t="n">
+        <v>25.56432723999023</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>26.61824607849121</v>
+      </c>
+      <c r="R13" t="n">
+        <v>27.34083557128906</v>
+      </c>
+      <c r="S13" t="n">
+        <v>27.59317016601562</v>
+      </c>
+      <c r="T13" t="n">
+        <v>27.15641403198242</v>
+      </c>
+      <c r="U13" t="n">
+        <v>25.96000480651855</v>
+      </c>
+      <c r="V13" t="n">
+        <v>23.88557434082031</v>
+      </c>
+      <c r="W13" t="n">
+        <v>21.59727668762207</v>
+      </c>
+      <c r="X13" t="n">
+        <v>20.15151596069336</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>18.89273262023926</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -7577,4 +12694,2048 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MES</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.781314253807068</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.702298760414124</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.559472799301147</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.448704361915588</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.405692934989929</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.375819206237793</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.386825919151306</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.472233533859253</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.669456362724304</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.650707125663757</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.650004863739014</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.762104511260986</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.12100887298584</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.493772983551025</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.665460824966431</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.773961067199707</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.843771696090698</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.890644311904907</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.919800043106079</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.866777420043945</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.569572448730469</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2.348566770553589</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.15232253074646</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1.929409861564636</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.655892729759216</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.570164799690247</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.436495900154114</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.352335929870605</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.359304785728455</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.336502432823181</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.312042951583862</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.320747494697571</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.465174198150635</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.552846789360046</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.57082188129425</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.629401326179504</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.896101474761963</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.255753517150879</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.477643966674805</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.613068819046021</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.685154676437378</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.698392868041992</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.734986782073975</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.614363431930542</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.240227937698364</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2.099624872207642</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.9838947057724</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.821367740631104</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.531154632568359</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.465213418006897</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.417925119400024</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.407423257827759</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.412021279335022</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.404960632324219</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.396610975265503</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.407745599746704</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.460135579109192</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.582667589187622</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.561829447746277</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.594343423843384</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.770510792732239</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.048320531845093</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.250226974487305</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.399715423583984</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.504541397094727</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.526980876922607</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.433337450027466</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.113272905349731</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.800598621368408</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.810100197792053</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1.761250019073486</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.618661165237427</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.295096874237061</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.303795337677002</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.321075081825256</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.362037658691406</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.355372548103333</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.37243115901947</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.35064685344696</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.352090716362</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.352066040039062</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.466063380241394</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.592750072479248</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.619713068008423</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.733756065368652</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.842726111412048</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.026975631713867</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.130829095840454</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.203027486801147</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.22212028503418</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.970680356025696</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.530994415283203</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.293015241622925</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.352977275848389</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.32214629650116</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.313054084777832</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.208600997924805</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.195292949676514</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.188506126403809</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.201164960861206</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.208401203155518</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.214381217956543</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.244057059288025</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.231580853462219</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.203967809677124</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.230565786361694</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.378815174102783</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.502636551856995</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.622240781784058</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.703717112541199</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.828562617301941</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.905089974403381</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.898468136787415</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.857864141464233</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.632539033889771</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.394652128219604</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.325749397277832</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.325237512588501</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.314661145210266</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.216895461082458</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.239192485809326</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.267138242721558</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.276841759681702</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.286703109741211</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.247425079345703</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.24233877658844</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.294882297515869</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.32344388961792</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.347930788993835</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.376665949821472</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.432409405708313</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.586573600769043</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.748187065124512</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.893410205841064</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.978718161582947</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.092977285385132</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.039870977401733</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.957228064537048</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.720478415489197</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.525832772254944</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.456285834312439</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.402577877044678</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.373100399971008</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.310769200325012</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.285048007965088</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.264352560043335</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.229473948478699</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.220942616462708</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.260333895683289</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.278457403182983</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.322877526283264</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.312484383583069</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.285510301589966</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.310720443725586</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.402606248855591</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.546030044555664</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.660562634468079</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.762603044509888</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.861294627189636</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.927776575088501</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.977690815925598</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.91202187538147</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.657469749450684</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.427381634712219</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.295281887054443</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.317384958267212</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.280180931091309</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.246707320213318</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.275862216949463</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.293380975723267</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.300835728645325</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.286552548408508</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.30398952960968</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.328390955924988</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.2931067943573</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.330233931541443</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.347512245178223</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.441465735435486</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.591642737388611</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.718430995941162</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.802225232124329</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.935047507286072</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.060379981994629</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.126530885696411</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.114824295043945</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.075031757354736</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.878427863121033</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.505763173103333</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.368566870689392</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.373679161071777</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.345514416694641</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.326356768608093</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.369507670402527</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.36613667011261</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.35670530796051</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.352577328681946</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.382096767425537</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.385132431983948</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.419848680496216</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.435579061508179</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.456059098243713</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.590694904327393</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.72029185295105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.78861129283905</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.898396253585815</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.048085451126099</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.175200223922729</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.253876686096191</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.308287620544434</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.273825168609619</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.087465763092041</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.715239763259888</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.512559533119202</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.509061694145203</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.484905242919922</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.385665655136108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.555993318557739</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.516451120376587</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.468591213226318</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.469570398330688</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.50167441368103</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.47841203212738</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.485341429710388</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.532620787620544</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.649041891098022</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.714586973190308</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.740127682685852</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.847063302993774</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.033578395843506</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.222866535186768</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.385167360305786</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.468314647674561</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.508940696716309</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.473843097686768</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.365009069442749</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.086061000823975</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.816924333572388</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.816619277000427</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.81232738494873</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1.642126679420471</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.761478185653687</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.674672245979309</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.614344596862793</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.589943647384644</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.592446327209473</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.592963218688965</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.626388669013977</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.711423754692078</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.827064394950867</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.744908452033997</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.730183482170105</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.920756936073303</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.202494382858276</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2.390932559967041</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.540370464324951</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.648585796356201</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.724625825881958</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.792032480239868</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.795880794525146</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.63188624382019</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.282369136810303</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2.192442178726196</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2.089131116867065</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1.866857051849365</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.831199288368225</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.68517529964447</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.601101517677307</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.59008514881134</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.550281882286072</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.506909608840942</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.532190799713135</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.670985817909241</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.773139953613281</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.670014381408691</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.677222847938538</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.920103788375854</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.248411893844604</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2.474673271179199</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.586064577102661</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.696725368499756</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.739812612533569</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.836044788360596</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.942684650421143</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.840421199798584</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.534250020980835</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2.304938077926636</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2.174221277236938</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.985963344573975</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MES</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>50.37271118164062</v>
+      </c>
+      <c r="C2" t="n">
+        <v>53.68404388427734</v>
+      </c>
+      <c r="D2" t="n">
+        <v>57.88904571533203</v>
+      </c>
+      <c r="E2" t="n">
+        <v>61.78020095825195</v>
+      </c>
+      <c r="F2" t="n">
+        <v>65.40464019775391</v>
+      </c>
+      <c r="G2" t="n">
+        <v>68.36851501464844</v>
+      </c>
+      <c r="H2" t="n">
+        <v>71.49753570556641</v>
+      </c>
+      <c r="I2" t="n">
+        <v>72.18490600585938</v>
+      </c>
+      <c r="J2" t="n">
+        <v>67.41116333007812</v>
+      </c>
+      <c r="K2" t="n">
+        <v>61.25871658325195</v>
+      </c>
+      <c r="L2" t="n">
+        <v>54.44538497924805</v>
+      </c>
+      <c r="M2" t="n">
+        <v>47.48958206176758</v>
+      </c>
+      <c r="N2" t="n">
+        <v>41.5691032409668</v>
+      </c>
+      <c r="O2" t="n">
+        <v>37.25758361816406</v>
+      </c>
+      <c r="P2" t="n">
+        <v>33.75054931640625</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>30.58177185058594</v>
+      </c>
+      <c r="R2" t="n">
+        <v>28.14636993408203</v>
+      </c>
+      <c r="S2" t="n">
+        <v>26.75543975830078</v>
+      </c>
+      <c r="T2" t="n">
+        <v>26.99545860290527</v>
+      </c>
+      <c r="U2" t="n">
+        <v>29.48898696899414</v>
+      </c>
+      <c r="V2" t="n">
+        <v>34.08830642700195</v>
+      </c>
+      <c r="W2" t="n">
+        <v>39.46746826171875</v>
+      </c>
+      <c r="X2" t="n">
+        <v>42.83820343017578</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>46.51988983154297</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>54.76466751098633</v>
+      </c>
+      <c r="C3" t="n">
+        <v>58.30365371704102</v>
+      </c>
+      <c r="D3" t="n">
+        <v>61.5247688293457</v>
+      </c>
+      <c r="E3" t="n">
+        <v>64.7918701171875</v>
+      </c>
+      <c r="F3" t="n">
+        <v>67.76509857177734</v>
+      </c>
+      <c r="G3" t="n">
+        <v>70.41954040527344</v>
+      </c>
+      <c r="H3" t="n">
+        <v>73.08422088623047</v>
+      </c>
+      <c r="I3" t="n">
+        <v>75.27326202392578</v>
+      </c>
+      <c r="J3" t="n">
+        <v>72.37702178955078</v>
+      </c>
+      <c r="K3" t="n">
+        <v>66.46448516845703</v>
+      </c>
+      <c r="L3" t="n">
+        <v>59.51969528198242</v>
+      </c>
+      <c r="M3" t="n">
+        <v>52.15337753295898</v>
+      </c>
+      <c r="N3" t="n">
+        <v>45.3863410949707</v>
+      </c>
+      <c r="O3" t="n">
+        <v>40.19839859008789</v>
+      </c>
+      <c r="P3" t="n">
+        <v>36.25520706176758</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>33.27505874633789</v>
+      </c>
+      <c r="R3" t="n">
+        <v>31.05155372619629</v>
+      </c>
+      <c r="S3" t="n">
+        <v>29.36907196044922</v>
+      </c>
+      <c r="T3" t="n">
+        <v>29.30349540710449</v>
+      </c>
+      <c r="U3" t="n">
+        <v>31.7613582611084</v>
+      </c>
+      <c r="V3" t="n">
+        <v>37.57710647583008</v>
+      </c>
+      <c r="W3" t="n">
+        <v>42.82080459594727</v>
+      </c>
+      <c r="X3" t="n">
+        <v>46.36360931396484</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>50.57902908325195</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>57.9883918762207</v>
+      </c>
+      <c r="C4" t="n">
+        <v>61.69106292724609</v>
+      </c>
+      <c r="D4" t="n">
+        <v>64.76199340820312</v>
+      </c>
+      <c r="E4" t="n">
+        <v>67.65621948242188</v>
+      </c>
+      <c r="F4" t="n">
+        <v>70.13181304931641</v>
+      </c>
+      <c r="G4" t="n">
+        <v>72.54644775390625</v>
+      </c>
+      <c r="H4" t="n">
+        <v>74.99046325683594</v>
+      </c>
+      <c r="I4" t="n">
+        <v>77.07463836669922</v>
+      </c>
+      <c r="J4" t="n">
+        <v>76.41115570068359</v>
+      </c>
+      <c r="K4" t="n">
+        <v>70.94744873046875</v>
+      </c>
+      <c r="L4" t="n">
+        <v>63.97150039672852</v>
+      </c>
+      <c r="M4" t="n">
+        <v>56.27608871459961</v>
+      </c>
+      <c r="N4" t="n">
+        <v>49.01932525634766</v>
+      </c>
+      <c r="O4" t="n">
+        <v>42.45669937133789</v>
+      </c>
+      <c r="P4" t="n">
+        <v>37.2365837097168</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>33.51532745361328</v>
+      </c>
+      <c r="R4" t="n">
+        <v>31.33052444458008</v>
+      </c>
+      <c r="S4" t="n">
+        <v>30.08689117431641</v>
+      </c>
+      <c r="T4" t="n">
+        <v>30.58090209960938</v>
+      </c>
+      <c r="U4" t="n">
+        <v>34.47150802612305</v>
+      </c>
+      <c r="V4" t="n">
+        <v>40.99311828613281</v>
+      </c>
+      <c r="W4" t="n">
+        <v>45.59163665771484</v>
+      </c>
+      <c r="X4" t="n">
+        <v>49.44076156616211</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>53.92613983154297</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>69.51398468017578</v>
+      </c>
+      <c r="C5" t="n">
+        <v>71.98873138427734</v>
+      </c>
+      <c r="D5" t="n">
+        <v>74.48003387451172</v>
+      </c>
+      <c r="E5" t="n">
+        <v>76.66423797607422</v>
+      </c>
+      <c r="F5" t="n">
+        <v>78.86185455322266</v>
+      </c>
+      <c r="G5" t="n">
+        <v>80.74263000488281</v>
+      </c>
+      <c r="H5" t="n">
+        <v>82.2747802734375</v>
+      </c>
+      <c r="I5" t="n">
+        <v>83.79110717773438</v>
+      </c>
+      <c r="J5" t="n">
+        <v>84.76008605957031</v>
+      </c>
+      <c r="K5" t="n">
+        <v>81.43318939208984</v>
+      </c>
+      <c r="L5" t="n">
+        <v>76.54426574707031</v>
+      </c>
+      <c r="M5" t="n">
+        <v>69.59963226318359</v>
+      </c>
+      <c r="N5" t="n">
+        <v>61.76500701904297</v>
+      </c>
+      <c r="O5" t="n">
+        <v>54.18992233276367</v>
+      </c>
+      <c r="P5" t="n">
+        <v>48.59815216064453</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>44.77799606323242</v>
+      </c>
+      <c r="R5" t="n">
+        <v>42.70235824584961</v>
+      </c>
+      <c r="S5" t="n">
+        <v>42.7808837890625</v>
+      </c>
+      <c r="T5" t="n">
+        <v>45.34476852416992</v>
+      </c>
+      <c r="U5" t="n">
+        <v>51.45614242553711</v>
+      </c>
+      <c r="V5" t="n">
+        <v>56.97717666625977</v>
+      </c>
+      <c r="W5" t="n">
+        <v>60.79339599609375</v>
+      </c>
+      <c r="X5" t="n">
+        <v>64.11686706542969</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>67.21608734130859</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>81.5008544921875</v>
+      </c>
+      <c r="C6" t="n">
+        <v>82.81359100341797</v>
+      </c>
+      <c r="D6" t="n">
+        <v>83.96969604492188</v>
+      </c>
+      <c r="E6" t="n">
+        <v>85.14844512939453</v>
+      </c>
+      <c r="F6" t="n">
+        <v>86.16335296630859</v>
+      </c>
+      <c r="G6" t="n">
+        <v>87.332275390625</v>
+      </c>
+      <c r="H6" t="n">
+        <v>88.33265686035156</v>
+      </c>
+      <c r="I6" t="n">
+        <v>88.82595062255859</v>
+      </c>
+      <c r="J6" t="n">
+        <v>89.29303741455078</v>
+      </c>
+      <c r="K6" t="n">
+        <v>88.27286529541016</v>
+      </c>
+      <c r="L6" t="n">
+        <v>84.33018493652344</v>
+      </c>
+      <c r="M6" t="n">
+        <v>78.73728942871094</v>
+      </c>
+      <c r="N6" t="n">
+        <v>71.80206298828125</v>
+      </c>
+      <c r="O6" t="n">
+        <v>65.18302917480469</v>
+      </c>
+      <c r="P6" t="n">
+        <v>60.17257308959961</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>56.63890075683594</v>
+      </c>
+      <c r="R6" t="n">
+        <v>55.58266448974609</v>
+      </c>
+      <c r="S6" t="n">
+        <v>57.2304801940918</v>
+      </c>
+      <c r="T6" t="n">
+        <v>61.86787414550781</v>
+      </c>
+      <c r="U6" t="n">
+        <v>67.15789031982422</v>
+      </c>
+      <c r="V6" t="n">
+        <v>71.13971710205078</v>
+      </c>
+      <c r="W6" t="n">
+        <v>74.59074401855469</v>
+      </c>
+      <c r="X6" t="n">
+        <v>77.14015197753906</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>79.78157806396484</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>86.32215118408203</v>
+      </c>
+      <c r="C7" t="n">
+        <v>87.43841552734375</v>
+      </c>
+      <c r="D7" t="n">
+        <v>88.33430480957031</v>
+      </c>
+      <c r="E7" t="n">
+        <v>89.13986968994141</v>
+      </c>
+      <c r="F7" t="n">
+        <v>90.02143096923828</v>
+      </c>
+      <c r="G7" t="n">
+        <v>90.66171264648438</v>
+      </c>
+      <c r="H7" t="n">
+        <v>91.02674102783203</v>
+      </c>
+      <c r="I7" t="n">
+        <v>91.27161407470703</v>
+      </c>
+      <c r="J7" t="n">
+        <v>91.56415557861328</v>
+      </c>
+      <c r="K7" t="n">
+        <v>91.42225646972656</v>
+      </c>
+      <c r="L7" t="n">
+        <v>89.35822296142578</v>
+      </c>
+      <c r="M7" t="n">
+        <v>85.02213287353516</v>
+      </c>
+      <c r="N7" t="n">
+        <v>79.88705444335938</v>
+      </c>
+      <c r="O7" t="n">
+        <v>74.45001983642578</v>
+      </c>
+      <c r="P7" t="n">
+        <v>69.8165283203125</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>66.58583831787109</v>
+      </c>
+      <c r="R7" t="n">
+        <v>65.35368347167969</v>
+      </c>
+      <c r="S7" t="n">
+        <v>66.65518951416016</v>
+      </c>
+      <c r="T7" t="n">
+        <v>71.70053863525391</v>
+      </c>
+      <c r="U7" t="n">
+        <v>76.35272216796875</v>
+      </c>
+      <c r="V7" t="n">
+        <v>79.53530120849609</v>
+      </c>
+      <c r="W7" t="n">
+        <v>81.73749542236328</v>
+      </c>
+      <c r="X7" t="n">
+        <v>83.64530181884766</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>85.02717590332031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>84.4088134765625</v>
+      </c>
+      <c r="C8" t="n">
+        <v>85.85018157958984</v>
+      </c>
+      <c r="D8" t="n">
+        <v>86.65213775634766</v>
+      </c>
+      <c r="E8" t="n">
+        <v>87.39955902099609</v>
+      </c>
+      <c r="F8" t="n">
+        <v>88.37571716308594</v>
+      </c>
+      <c r="G8" t="n">
+        <v>88.99412536621094</v>
+      </c>
+      <c r="H8" t="n">
+        <v>89.84506225585938</v>
+      </c>
+      <c r="I8" t="n">
+        <v>90.44944000244141</v>
+      </c>
+      <c r="J8" t="n">
+        <v>90.86183929443359</v>
+      </c>
+      <c r="K8" t="n">
+        <v>90.80010986328125</v>
+      </c>
+      <c r="L8" t="n">
+        <v>88.58050537109375</v>
+      </c>
+      <c r="M8" t="n">
+        <v>84.14522552490234</v>
+      </c>
+      <c r="N8" t="n">
+        <v>79.11865234375</v>
+      </c>
+      <c r="O8" t="n">
+        <v>73.39833831787109</v>
+      </c>
+      <c r="P8" t="n">
+        <v>68.29242706298828</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>64.48598480224609</v>
+      </c>
+      <c r="R8" t="n">
+        <v>62.93048095703125</v>
+      </c>
+      <c r="S8" t="n">
+        <v>64.11748504638672</v>
+      </c>
+      <c r="T8" t="n">
+        <v>68.32755279541016</v>
+      </c>
+      <c r="U8" t="n">
+        <v>73.24243927001953</v>
+      </c>
+      <c r="V8" t="n">
+        <v>76.38796234130859</v>
+      </c>
+      <c r="W8" t="n">
+        <v>79.10596466064453</v>
+      </c>
+      <c r="X8" t="n">
+        <v>81.20954132080078</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>82.94293975830078</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>79.72183227539062</v>
+      </c>
+      <c r="C9" t="n">
+        <v>81.42464447021484</v>
+      </c>
+      <c r="D9" t="n">
+        <v>83.05214691162109</v>
+      </c>
+      <c r="E9" t="n">
+        <v>84.46802520751953</v>
+      </c>
+      <c r="F9" t="n">
+        <v>85.84389495849609</v>
+      </c>
+      <c r="G9" t="n">
+        <v>87.12422943115234</v>
+      </c>
+      <c r="H9" t="n">
+        <v>88.06452941894531</v>
+      </c>
+      <c r="I9" t="n">
+        <v>88.80944061279297</v>
+      </c>
+      <c r="J9" t="n">
+        <v>88.94114685058594</v>
+      </c>
+      <c r="K9" t="n">
+        <v>87.08743286132812</v>
+      </c>
+      <c r="L9" t="n">
+        <v>83.18886566162109</v>
+      </c>
+      <c r="M9" t="n">
+        <v>77.93174743652344</v>
+      </c>
+      <c r="N9" t="n">
+        <v>71.44093322753906</v>
+      </c>
+      <c r="O9" t="n">
+        <v>64.97925567626953</v>
+      </c>
+      <c r="P9" t="n">
+        <v>59.59165954589844</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>56.18781280517578</v>
+      </c>
+      <c r="R9" t="n">
+        <v>54.54254531860352</v>
+      </c>
+      <c r="S9" t="n">
+        <v>55.57426071166992</v>
+      </c>
+      <c r="T9" t="n">
+        <v>58.45619964599609</v>
+      </c>
+      <c r="U9" t="n">
+        <v>63.78179168701172</v>
+      </c>
+      <c r="V9" t="n">
+        <v>68.21274566650391</v>
+      </c>
+      <c r="W9" t="n">
+        <v>71.61064147949219</v>
+      </c>
+      <c r="X9" t="n">
+        <v>74.77931976318359</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>77.43204498291016</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>72.56996154785156</v>
+      </c>
+      <c r="C10" t="n">
+        <v>74.98152923583984</v>
+      </c>
+      <c r="D10" t="n">
+        <v>77.20793151855469</v>
+      </c>
+      <c r="E10" t="n">
+        <v>79.10668182373047</v>
+      </c>
+      <c r="F10" t="n">
+        <v>80.81370544433594</v>
+      </c>
+      <c r="G10" t="n">
+        <v>82.61335754394531</v>
+      </c>
+      <c r="H10" t="n">
+        <v>84.23668670654297</v>
+      </c>
+      <c r="I10" t="n">
+        <v>85.46148681640625</v>
+      </c>
+      <c r="J10" t="n">
+        <v>85.00528717041016</v>
+      </c>
+      <c r="K10" t="n">
+        <v>81.39933776855469</v>
+      </c>
+      <c r="L10" t="n">
+        <v>76.61411285400391</v>
+      </c>
+      <c r="M10" t="n">
+        <v>70.25945281982422</v>
+      </c>
+      <c r="N10" t="n">
+        <v>63.75127029418945</v>
+      </c>
+      <c r="O10" t="n">
+        <v>57.60179138183594</v>
+      </c>
+      <c r="P10" t="n">
+        <v>52.94690704345703</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>49.02615737915039</v>
+      </c>
+      <c r="R10" t="n">
+        <v>47.28997421264648</v>
+      </c>
+      <c r="S10" t="n">
+        <v>47.33504486083984</v>
+      </c>
+      <c r="T10" t="n">
+        <v>49.43399429321289</v>
+      </c>
+      <c r="U10" t="n">
+        <v>54.26297760009766</v>
+      </c>
+      <c r="V10" t="n">
+        <v>59.52568054199219</v>
+      </c>
+      <c r="W10" t="n">
+        <v>63.18036651611328</v>
+      </c>
+      <c r="X10" t="n">
+        <v>66.52950286865234</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>69.88025665283203</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>64.62047576904297</v>
+      </c>
+      <c r="C11" t="n">
+        <v>67.93441009521484</v>
+      </c>
+      <c r="D11" t="n">
+        <v>70.66478729248047</v>
+      </c>
+      <c r="E11" t="n">
+        <v>73.47340393066406</v>
+      </c>
+      <c r="F11" t="n">
+        <v>76.42079162597656</v>
+      </c>
+      <c r="G11" t="n">
+        <v>78.64373779296875</v>
+      </c>
+      <c r="H11" t="n">
+        <v>80.97115325927734</v>
+      </c>
+      <c r="I11" t="n">
+        <v>82.35024261474609</v>
+      </c>
+      <c r="J11" t="n">
+        <v>79.03900146484375</v>
+      </c>
+      <c r="K11" t="n">
+        <v>73.81301116943359</v>
+      </c>
+      <c r="L11" t="n">
+        <v>67.64479064941406</v>
+      </c>
+      <c r="M11" t="n">
+        <v>60.73208236694336</v>
+      </c>
+      <c r="N11" t="n">
+        <v>54.18783569335938</v>
+      </c>
+      <c r="O11" t="n">
+        <v>48.34546661376953</v>
+      </c>
+      <c r="P11" t="n">
+        <v>43.83192443847656</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>40.81688690185547</v>
+      </c>
+      <c r="R11" t="n">
+        <v>38.97103500366211</v>
+      </c>
+      <c r="S11" t="n">
+        <v>38.38015365600586</v>
+      </c>
+      <c r="T11" t="n">
+        <v>39.65648651123047</v>
+      </c>
+      <c r="U11" t="n">
+        <v>43.23072052001953</v>
+      </c>
+      <c r="V11" t="n">
+        <v>49.53892135620117</v>
+      </c>
+      <c r="W11" t="n">
+        <v>53.87532806396484</v>
+      </c>
+      <c r="X11" t="n">
+        <v>57.32472610473633</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>60.79196548461914</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>56.84147644042969</v>
+      </c>
+      <c r="C12" t="n">
+        <v>60.79582214355469</v>
+      </c>
+      <c r="D12" t="n">
+        <v>64.35199737548828</v>
+      </c>
+      <c r="E12" t="n">
+        <v>67.90517425537109</v>
+      </c>
+      <c r="F12" t="n">
+        <v>71.48105621337891</v>
+      </c>
+      <c r="G12" t="n">
+        <v>74.78478240966797</v>
+      </c>
+      <c r="H12" t="n">
+        <v>77.68193054199219</v>
+      </c>
+      <c r="I12" t="n">
+        <v>77.28748321533203</v>
+      </c>
+      <c r="J12" t="n">
+        <v>72.6202392578125</v>
+      </c>
+      <c r="K12" t="n">
+        <v>66.13734436035156</v>
+      </c>
+      <c r="L12" t="n">
+        <v>58.89371109008789</v>
+      </c>
+      <c r="M12" t="n">
+        <v>51.71745681762695</v>
+      </c>
+      <c r="N12" t="n">
+        <v>45.4405403137207</v>
+      </c>
+      <c r="O12" t="n">
+        <v>40.39398956298828</v>
+      </c>
+      <c r="P12" t="n">
+        <v>36.38864517211914</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>33.18105697631836</v>
+      </c>
+      <c r="R12" t="n">
+        <v>30.82475852966309</v>
+      </c>
+      <c r="S12" t="n">
+        <v>30.1114387512207</v>
+      </c>
+      <c r="T12" t="n">
+        <v>30.76947784423828</v>
+      </c>
+      <c r="U12" t="n">
+        <v>33.97710037231445</v>
+      </c>
+      <c r="V12" t="n">
+        <v>39.78887176513672</v>
+      </c>
+      <c r="W12" t="n">
+        <v>44.9283447265625</v>
+      </c>
+      <c r="X12" t="n">
+        <v>48.5207633972168</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>52.51261138916016</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>52.02245712280273</v>
+      </c>
+      <c r="C13" t="n">
+        <v>56.46592712402344</v>
+      </c>
+      <c r="D13" t="n">
+        <v>60.7049560546875</v>
+      </c>
+      <c r="E13" t="n">
+        <v>64.84035491943359</v>
+      </c>
+      <c r="F13" t="n">
+        <v>68.51105499267578</v>
+      </c>
+      <c r="G13" t="n">
+        <v>71.75302886962891</v>
+      </c>
+      <c r="H13" t="n">
+        <v>74.54257202148438</v>
+      </c>
+      <c r="I13" t="n">
+        <v>73.25246429443359</v>
+      </c>
+      <c r="J13" t="n">
+        <v>68.86074066162109</v>
+      </c>
+      <c r="K13" t="n">
+        <v>62.72444534301758</v>
+      </c>
+      <c r="L13" t="n">
+        <v>55.70771789550781</v>
+      </c>
+      <c r="M13" t="n">
+        <v>48.86330795288086</v>
+      </c>
+      <c r="N13" t="n">
+        <v>42.65023040771484</v>
+      </c>
+      <c r="O13" t="n">
+        <v>37.87345123291016</v>
+      </c>
+      <c r="P13" t="n">
+        <v>33.79121398925781</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>30.48977661132812</v>
+      </c>
+      <c r="R13" t="n">
+        <v>27.95021057128906</v>
+      </c>
+      <c r="S13" t="n">
+        <v>26.61846923828125</v>
+      </c>
+      <c r="T13" t="n">
+        <v>27.18644523620605</v>
+      </c>
+      <c r="U13" t="n">
+        <v>29.67228126525879</v>
+      </c>
+      <c r="V13" t="n">
+        <v>34.35866546630859</v>
+      </c>
+      <c r="W13" t="n">
+        <v>39.69606018066406</v>
+      </c>
+      <c r="X13" t="n">
+        <v>43.27032852172852</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>47.19277191162109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>